--- a/GDI.xlsx
+++ b/GDI.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anamakarevich/UdacityProjects/suicide_rates_factors/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA61F536-2C84-F24E-BBB0-A01EA21A3DFE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="GDI" sheetId="1" r:id="rId3"/>
+    <sheet name="GDI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -64,12 +73,6 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Hong Kong, China (SAR)</t>
-  </si>
-  <si>
     <t>New Zealand</t>
   </si>
   <si>
@@ -88,9 +91,6 @@
     <t>Japan</t>
   </si>
   <si>
-    <t>Korea (Republic of)</t>
-  </si>
-  <si>
     <t>Israel</t>
   </si>
   <si>
@@ -241,18 +241,12 @@
     <t>Cuba</t>
   </si>
   <si>
-    <t>Iran (Islamic Republic of)</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
     <t>Turkey</t>
   </si>
   <si>
-    <t>Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
@@ -280,9 +274,6 @@
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
-    <t>The former Yugoslav Republic of Macedonia</t>
-  </si>
-  <si>
     <t>Algeria</t>
   </si>
   <si>
@@ -355,9 +346,6 @@
     <t>Uzbekistan</t>
   </si>
   <si>
-    <t>Moldova (Republic of)</t>
-  </si>
-  <si>
     <t>Botswana</t>
   </si>
   <si>
@@ -376,9 +364,6 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Palestine, State of</t>
-  </si>
-  <si>
     <t>Viet Nam</t>
   </si>
   <si>
@@ -388,9 +373,6 @@
     <t>El Salvador</t>
   </si>
   <si>
-    <t>Bolivia (Plurinational State of)</t>
-  </si>
-  <si>
     <t>South Africa</t>
   </si>
   <si>
@@ -418,9 +400,6 @@
     <t>Guyana</t>
   </si>
   <si>
-    <t>Micronesia (Federated States of)</t>
-  </si>
-  <si>
     <t>Tajikistan</t>
   </si>
   <si>
@@ -448,9 +427,6 @@
     <t>Kiribati</t>
   </si>
   <si>
-    <t>Lao People's Democratic Republic</t>
-  </si>
-  <si>
     <t>Bangladesh</t>
   </si>
   <si>
@@ -487,9 +463,6 @@
     <t>Angola</t>
   </si>
   <si>
-    <t>Tanzania (United Republic of)</t>
-  </si>
-  <si>
     <t>Nigeria</t>
   </si>
   <si>
@@ -562,9 +535,6 @@
     <t>Mali</t>
   </si>
   <si>
-    <t>Congo (Democratic Republic of the)</t>
-  </si>
-  <si>
     <t>Liberia</t>
   </si>
   <si>
@@ -601,9 +571,6 @@
     <t>Central African Republic</t>
   </si>
   <si>
-    <t>Korea (Democratic People's Rep. of)</t>
-  </si>
-  <si>
     <t>Marshall Islands</t>
   </si>
   <si>
@@ -620,67 +587,419 @@
   </si>
   <si>
     <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Democratic People's Republic of Korea</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>USA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="36.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,101 +1022,101 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>0.993</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="F2" s="1">
         <v>18.3</v>
       </c>
       <c r="G2" s="2">
-        <v>59800.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>59800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>0.978</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0.927</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="F3" s="1">
         <v>20.9</v>
       </c>
       <c r="G3" s="2">
-        <v>34271.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>34271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>0.974</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>0.926</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="F4" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2">
-        <v>46798.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>46798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>0.964</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="D5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>0.908</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="F5" s="1">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G5" s="2">
-        <v>35878.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>35878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -806,260 +1125,260 @@
         <v>0.97</v>
       </c>
       <c r="D6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
         <v>0.91</v>
       </c>
       <c r="F6" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2">
-        <v>36857.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>36857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1">
-        <v>0.985</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.913</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="F7" s="1">
         <v>15.5</v>
       </c>
       <c r="G7" s="2">
-        <v>60787.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>60787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="1">
-        <v>0.946</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>0.895</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="F8" s="1">
         <v>18.2</v>
       </c>
       <c r="G8" s="2">
-        <v>30117.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>30117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="1">
-        <v>0.976</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.909</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="F9" s="1">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="G9" s="2">
-        <v>33497.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>33497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1">
-        <v>0.965</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="D10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="F10" s="1">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="G10" s="2">
-        <v>30530.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>30530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="1">
-        <v>0.983</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>0.911</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="F11" s="1">
         <v>16.8</v>
       </c>
       <c r="G11" s="2">
-        <v>33288.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>33288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="C12" s="1">
-        <v>0.993</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>0.915</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="F12" s="1">
         <v>17.3</v>
       </c>
       <c r="G12" s="2">
-        <v>42272.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>42272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="C13" s="1">
-        <v>0.964</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="D13" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>0.903</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="F13" s="1">
         <v>15.8</v>
       </c>
       <c r="G13" s="2">
-        <v>39525.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>39525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
-        <v>0.963</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D14" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>0.896</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="F14" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="G14" s="2">
-        <v>24413.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>24413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
         <v>0.997</v>
       </c>
       <c r="D15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.909</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="F15" s="1">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G15" s="2">
-        <v>40328.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>40328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1">
         <v>13.5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1">
-        <v>0.964</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
         <v>0.89</v>
@@ -1068,182 +1387,182 @@
         <v>16.7</v>
       </c>
       <c r="G17" s="2">
-        <v>26324.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>26324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1">
         <v>0.97</v>
       </c>
       <c r="D18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1">
-        <v>0.887</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="F18" s="1">
         <v>15.2</v>
       </c>
       <c r="G18" s="2">
-        <v>25385.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>25385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="C19" s="1">
-        <v>0.929</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="D19" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>0.863</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="F19" s="1">
         <v>15.8</v>
       </c>
       <c r="G19" s="2">
-        <v>21308.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>21308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
-        <v>0.973</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1">
-        <v>0.884</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="F20" s="1">
         <v>16.5</v>
       </c>
       <c r="G20" s="2">
-        <v>23323.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>23323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
-        <v>0.966</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="D21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>0.881</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="F21" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="G21" s="2">
-        <v>47539.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>47539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1">
-        <v>0.988</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>0.892</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="F22" s="1">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G22" s="2">
-        <v>31742.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>31742</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
-        <v>0.978</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="D23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>0.881</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="F23" s="1">
         <v>16.7</v>
       </c>
       <c r="G23" s="2">
-        <v>32416.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>32416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>0.895</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="F24" s="1">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="G24" s="2">
-        <v>32069.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>32069</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D25" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1">
         <v>0.87</v>
@@ -1252,159 +1571,159 @@
         <v>16.2</v>
       </c>
       <c r="G25" s="2">
-        <v>29829.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>29829</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1">
-        <v>1.003</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
         <v>0.89</v>
       </c>
       <c r="F26" s="1">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="G26" s="2">
-        <v>25654.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>25654</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1">
-        <v>0.963</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D27" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1">
-        <v>0.865</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="F27" s="1">
         <v>16.7</v>
       </c>
       <c r="G27" s="2">
-        <v>22910.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>22910</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1">
-        <v>0.974</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="D28" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1">
         <v>0.87</v>
       </c>
       <c r="F28" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="G28" s="2">
-        <v>24382.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>24382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>0.983</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="D29" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>0.869</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="F29" s="1">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="G29" s="2">
-        <v>20997.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>20997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D30" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E30" s="1">
-        <v>0.844</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="F30" s="1">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="G30" s="2">
-        <v>17304.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>17304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="D31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>0.854</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="F31" s="1">
         <v>15.4</v>
       </c>
       <c r="G31" s="2">
-        <v>55402.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>55402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1">
         <v>1.032</v>
       </c>
       <c r="D32" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E32" s="1">
         <v>0.878</v>
@@ -1413,504 +1732,504 @@
         <v>17.3</v>
       </c>
       <c r="G32" s="2">
-        <v>21976.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>21976</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1">
-        <v>0.979</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="D34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>0.846</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F34" s="1">
         <v>14.7</v>
       </c>
       <c r="G34" s="2">
-        <v>23450.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>23450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1">
-        <v>0.923</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="D35" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E35" s="1">
-        <v>0.817</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="F35" s="1">
         <v>14.3</v>
       </c>
       <c r="G35" s="2">
-        <v>17295.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>17295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1">
-        <v>0.991</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="D36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>0.851</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="F36" s="1">
         <v>13.5</v>
       </c>
       <c r="G36" s="2">
-        <v>50324.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>50324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1">
         <v>1.006</v>
       </c>
       <c r="D37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>0.857</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="F37" s="1">
         <v>17.2</v>
       </c>
       <c r="G37" s="2">
-        <v>18928.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>18928</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1">
         <v>1.032</v>
       </c>
       <c r="D38" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E38" s="1">
-        <v>0.861</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="F38" s="1">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="G38" s="2">
-        <v>22147.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>22147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C39" s="1">
-        <v>0.966</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="D39" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E39" s="1">
-        <v>0.829</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="F39" s="1">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G39" s="2">
-        <v>14955.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>14955</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1">
-        <v>0.882</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D40" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E40" s="1">
-        <v>0.779</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="F40" s="1">
         <v>15.3</v>
       </c>
       <c r="G40" s="2">
-        <v>19300.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>19300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1">
-        <v>0.991</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="D41" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>0.838</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="F41" s="1">
         <v>15.5</v>
       </c>
       <c r="G41" s="2">
-        <v>20173.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1">
         <v>0.98</v>
       </c>
       <c r="D42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1">
-        <v>0.833</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="F42" s="1">
         <v>16.5</v>
       </c>
       <c r="G42" s="2">
-        <v>21095.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>21095</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1">
-        <v>0.972</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="D43" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E43" s="1">
-        <v>0.815</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="F43" s="1">
         <v>13.9</v>
       </c>
       <c r="G43" s="2">
-        <v>27257.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>27257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1">
-        <v>0.988</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="D44" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1">
         <v>0.83</v>
       </c>
       <c r="F44" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="G44" s="2">
-        <v>17787.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>17787</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1">
-        <v>1.025</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="D45" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E45" s="1">
         <v>0.84</v>
       </c>
       <c r="F45" s="1">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G45" s="2">
-        <v>18824.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>18824</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C46" s="1">
-        <v>0.982</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="D46" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1">
-        <v>0.813</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="F46" s="1">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="G46" s="2">
-        <v>12875.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>12875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1">
         <v>0.997</v>
       </c>
       <c r="D47" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1">
-        <v>0.827</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="F47" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="G47" s="2">
-        <v>16932.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>16932</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C48" s="1">
         <v>0.97</v>
       </c>
       <c r="D48" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E48" s="1">
-        <v>0.806</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="F48" s="1">
         <v>15.1</v>
       </c>
       <c r="G48" s="2">
-        <v>25717.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>25717</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C49" s="1">
-        <v>0.955</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="D49" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E49" s="1">
-        <v>0.789</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="F49" s="1">
         <v>15.7</v>
       </c>
       <c r="G49" s="2">
-        <v>11757.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>11757</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C50" s="1">
         <v>1.016</v>
       </c>
       <c r="D50" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1">
-        <v>0.809</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="F50" s="1">
         <v>15.3</v>
       </c>
       <c r="G50" s="2">
-        <v>17868.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>17868</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C51" s="1">
         <v>0.99</v>
       </c>
       <c r="D51" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1">
-        <v>0.796</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="F51" s="1">
         <v>15.1</v>
       </c>
       <c r="G51" s="2">
-        <v>16272.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>16272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C52" s="1">
-        <v>0.972</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="D52" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E52" s="1">
-        <v>0.769</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="F52" s="1">
         <v>13.6</v>
       </c>
       <c r="G52" s="2">
-        <v>35164.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>35164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C53" s="1">
-        <v>1.021</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="D53" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1">
-        <v>0.803</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="F53" s="1">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G53" s="2">
-        <v>12327.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>12327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C54" s="1">
-        <v>0.927</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="D54" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E54" s="1">
         <v>0.755</v>
@@ -1919,343 +2238,343 @@
         <v>13.9</v>
       </c>
       <c r="G54" s="2">
-        <v>15703.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>15703</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C55" s="1">
         <v>1.006</v>
       </c>
       <c r="D55" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>0.795</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="F55" s="1">
         <v>16.7</v>
       </c>
       <c r="G55" s="2">
-        <v>11801.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>11801</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C56" s="1">
-        <v>1.017</v>
+        <v>1.0169999999999999</v>
       </c>
       <c r="D56" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0.799</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="F56" s="1">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G56" s="2">
-        <v>14608.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>14608</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C57" s="1">
-        <v>0.984</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="D57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="1">
-        <v>0.789</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="F57" s="1">
         <v>15.3</v>
       </c>
       <c r="G57" s="2">
-        <v>12979.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>12979</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C58" s="1">
         <v>1.006</v>
       </c>
       <c r="D58" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="1">
-        <v>0.795</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="F58" s="1">
         <v>15.4</v>
       </c>
       <c r="G58" s="2">
-        <v>16364.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>16364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="2">
+        <v>18070</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="2">
+        <v>17170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="2">
-        <v>18070.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1">
-        <v>59.0</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="2">
-        <v>17170.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="1">
-        <v>17.6</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C62" s="1">
         <v>0.997</v>
       </c>
       <c r="D62" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="1">
-        <v>0.783</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="F62" s="1">
         <v>13.2</v>
       </c>
       <c r="G62" s="2">
-        <v>14550.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>14550</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F63" s="1">
         <v>14.6</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F64" s="1">
         <v>14.8</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C65" s="1">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="D65" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E65" s="1">
-        <v>0.759</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="F65" s="1">
         <v>15.5</v>
       </c>
       <c r="G65" s="2">
-        <v>10540.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>10540</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C66" s="1">
         <v>1.004</v>
       </c>
       <c r="D66" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="1">
-        <v>0.786</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="F66" s="1">
         <v>14.3</v>
       </c>
       <c r="G66" s="2">
-        <v>21104.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>21104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C67" s="1">
-        <v>0.969</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="D67" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E67" s="1">
-        <v>0.762</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="F67" s="1">
         <v>14.5</v>
       </c>
       <c r="G67" s="2">
-        <v>9955.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>9955</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C68" s="1">
-        <v>0.969</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="D68" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E68" s="1">
-        <v>0.763</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="F68" s="1">
         <v>14.8</v>
       </c>
       <c r="G68" s="2">
-        <v>9600.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C69" s="1">
-        <v>0.946</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D69" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E69" s="1">
         <v>0.75</v>
@@ -2264,21 +2583,21 @@
         <v>14.4</v>
       </c>
       <c r="G69" s="2">
-        <v>5013.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>5013</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="C70" s="1">
-        <v>0.862</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="D70" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E70" s="1">
         <v>0.7</v>
@@ -2287,21 +2606,21 @@
         <v>14.6</v>
       </c>
       <c r="G70" s="2">
-        <v>5132.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>5132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C71" s="1">
         <v>0.97</v>
       </c>
       <c r="D71" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E71" s="1">
         <v>0.754</v>
@@ -2310,113 +2629,113 @@
         <v>14.1</v>
       </c>
       <c r="G71" s="2">
-        <v>6105.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C72" s="1">
-        <v>0.908</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="D72" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E72" s="1">
-        <v>0.724</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="F72" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="G72" s="2">
-        <v>10648.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>10648</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="C73" s="1">
         <v>1.028</v>
       </c>
       <c r="D73" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E73" s="1">
-        <v>0.776</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="F73" s="1">
         <v>15.4</v>
       </c>
       <c r="G73" s="2">
-        <v>11579.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>11579</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C74" s="1">
-        <v>0.934</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="D74" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E74" s="1">
-        <v>0.734</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="F74" s="1">
         <v>14.3</v>
       </c>
       <c r="G74" s="2">
-        <v>6067.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>6067</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F75" s="1">
         <v>13.8</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C76" s="1">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="D76" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E76" s="1">
         <v>0.747</v>
@@ -2425,90 +2744,90 @@
         <v>14.4</v>
       </c>
       <c r="G76" s="2">
-        <v>7365.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>7365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C77" s="1">
-        <v>0.893</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="D77" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E77" s="1">
-        <v>0.709</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="F77" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="G77" s="2">
-        <v>5844.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>5844</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C78" s="1">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D78" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E78" s="1">
-        <v>0.737</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="F78" s="1">
         <v>13.5</v>
       </c>
       <c r="G78" s="2">
-        <v>10710.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>10710</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C79" s="1">
         <v>0.94</v>
       </c>
       <c r="D79" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E79" s="1">
-        <v>0.732</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="F79" s="1">
         <v>12.6</v>
       </c>
       <c r="G79" s="2">
-        <v>11029.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>11029</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C80" s="1">
-        <v>1.005</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="D80" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E80" s="1">
         <v>0.754</v>
@@ -2517,159 +2836,159 @@
         <v>15.7</v>
       </c>
       <c r="G80" s="2">
-        <v>10672.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>10672</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F81" s="1">
         <v>16.2</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C82" s="1">
-        <v>0.923</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="D82" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E82" s="1">
-        <v>0.721</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="F82" s="1">
         <v>14.8</v>
       </c>
       <c r="G82" s="2">
-        <v>6950.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>6950</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="C83" s="1">
-        <v>0.947</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="D83" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E83" s="1">
-        <v>0.725</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="F83" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="G83" s="2">
-        <v>9050.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>9050</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C84" s="1">
-        <v>0.854</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="D84" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E84" s="1">
-        <v>0.665</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="F84" s="1">
         <v>14.6</v>
       </c>
       <c r="G84" s="2">
-        <v>4022.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C85" s="1">
-        <v>0.993</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="D85" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E85" s="1">
-        <v>0.736</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="F85" s="1">
         <v>13.8</v>
       </c>
       <c r="G85" s="2">
-        <v>5535.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>5535</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C86" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D86" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E86" s="1">
-        <v>0.741</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="F86" s="1">
         <v>15.5</v>
       </c>
       <c r="G86" s="2">
-        <v>5791.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>5791</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C87" s="1">
-        <v>0.864</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="D87" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E87" s="1">
         <v>0.67</v>
@@ -2678,44 +2997,44 @@
         <v>13.4</v>
       </c>
       <c r="G87" s="2">
-        <v>3203.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C88" s="1">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="D88" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E88" s="1">
-        <v>0.723</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="F88" s="1">
         <v>13.5</v>
       </c>
       <c r="G88" s="2">
-        <v>8939.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>8939</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C89" s="1">
-        <v>1.001</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="D89" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E89" s="1">
         <v>0.74</v>
@@ -2724,21 +3043,21 @@
         <v>14.1</v>
       </c>
       <c r="G89" s="2">
-        <v>12938.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>12938</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C90" s="1">
-        <v>0.976</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="D90" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E90" s="1">
         <v>0.73</v>
@@ -2747,205 +3066,205 @@
         <v>14.4</v>
       </c>
       <c r="G90" s="2">
-        <v>8278.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>8278</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="D91" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E91" s="1">
-        <v>0.718</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="F91" s="1">
         <v>13.7</v>
       </c>
       <c r="G91" s="2">
-        <v>10705.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>10705</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G92" s="2">
-        <v>4695.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C93" s="1">
         <v>1.026</v>
       </c>
       <c r="D93" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E93" s="1">
-        <v>0.744</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="F93" s="1">
         <v>15.5</v>
       </c>
       <c r="G93" s="2">
-        <v>8809.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C94" s="1">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="D94" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="1">
-        <v>0.729</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="F94" s="1">
         <v>13.4</v>
       </c>
       <c r="G94" s="2">
-        <v>8033.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>8033</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C95" s="1">
-        <v>0.975</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="D95" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E95" s="1">
-        <v>0.719</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="F95" s="1">
         <v>13.1</v>
       </c>
       <c r="G95" s="2">
-        <v>6628.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>6628</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C96" s="1">
         <v>1.004</v>
       </c>
       <c r="D96" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E96" s="1">
-        <v>0.731</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="F96" s="1">
         <v>14.5</v>
       </c>
       <c r="G96" s="2">
-        <v>10215.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>10215</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C98" s="1">
-        <v>0.972</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="D98" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E98" s="1">
-        <v>0.709</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="F98" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="G98" s="2">
-        <v>10501.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>10501</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C99" s="1">
-        <v>0.904</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="D99" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E99" s="1">
         <v>0.68</v>
@@ -2954,343 +3273,343 @@
         <v>15.1</v>
       </c>
       <c r="G99" s="2">
-        <v>4662.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>4662</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C100" s="1">
         <v>0.99</v>
       </c>
       <c r="D100" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E100" s="1">
-        <v>0.717</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="F100" s="1">
         <v>13.7</v>
       </c>
       <c r="G100" s="2">
-        <v>9281.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>9281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F101" s="1">
         <v>13.5</v>
       </c>
       <c r="G101" s="2">
-        <v>7600.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C102" s="1">
-        <v>0.969</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="D102" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E102" s="1">
-        <v>0.707</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="F102" s="1">
         <v>14.6</v>
       </c>
       <c r="G102" s="2">
-        <v>3959.0</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C103" s="1">
         <v>0.95</v>
       </c>
       <c r="D103" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E103" s="1">
-        <v>0.691</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="F103" s="1">
         <v>13.6</v>
       </c>
       <c r="G103" s="2">
-        <v>7163.0</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>7163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C104" s="1">
-        <v>0.967</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="D104" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E104" s="1">
-        <v>0.693</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="F104" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="G104" s="2">
-        <v>5360.0</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F105" s="1">
         <v>13.3</v>
       </c>
       <c r="G105" s="2">
-        <v>3444.0</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C106" s="1">
-        <v>0.937</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="D106" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E106" s="1">
-        <v>0.676</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="F106" s="1">
         <v>12.8</v>
       </c>
       <c r="G106" s="2">
-        <v>7155.0</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>7155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C107" s="1">
-        <v>0.946</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D107" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E107" s="1">
-        <v>0.672</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="F107" s="1">
         <v>11.8</v>
       </c>
       <c r="G107" s="2">
-        <v>3891.0</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="C108" s="1">
         <v>1.01</v>
       </c>
       <c r="D108" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E108" s="1">
-        <v>0.702</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="F108" s="1">
         <v>12.1</v>
       </c>
       <c r="G108" s="2">
-        <v>4461.0</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C109" s="1">
-        <v>0.984</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="D109" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E109" s="1">
-        <v>0.693</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="F109" s="1">
         <v>12.8</v>
       </c>
       <c r="G109" s="2">
-        <v>13278.0</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>13278</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C110" s="1">
-        <v>0.923</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="D110" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E110" s="1">
-        <v>0.669</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="F110" s="1">
         <v>12.5</v>
       </c>
       <c r="G110" s="2">
-        <v>15838.0</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>15838</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C111" s="1">
-        <v>0.966</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="D111" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E111" s="1">
-        <v>0.679</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="F111" s="1">
         <v>12.6</v>
       </c>
       <c r="G111" s="2">
-        <v>6138.0</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>6138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C112" s="1">
-        <v>0.884</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="D112" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E112" s="1">
         <v>0.64</v>
       </c>
       <c r="F112" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="G112" s="2">
-        <v>4750.0</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F113" s="1">
         <v>10.6</v>
       </c>
       <c r="G113" s="2">
-        <v>9359.0</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>9359</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C114" s="1">
-        <v>0.926</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="D114" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E114" s="1">
         <v>0.66</v>
@@ -3299,113 +3618,113 @@
         <v>12.9</v>
       </c>
       <c r="G114" s="2">
-        <v>6668.0</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>6668</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="C115" s="1">
-        <v>0.867</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="D115" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E115" s="1">
-        <v>0.616</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="F115" s="1">
         <v>13.7</v>
       </c>
       <c r="G115" s="2">
-        <v>1766.0</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C116" s="1">
         <v>1.01</v>
       </c>
       <c r="D116" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E116" s="1">
-        <v>0.687</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="F116" s="1">
         <v>12.9</v>
       </c>
       <c r="G116" s="2">
-        <v>4834.0</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>4834</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C117" s="1">
-        <v>1.001</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="D117" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E117" s="1">
-        <v>0.682</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="F117" s="1">
         <v>12.1</v>
       </c>
       <c r="G117" s="2">
-        <v>6845.0</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>6845</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C118" s="1">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D118" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E118" s="1">
-        <v>0.663</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="F118" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="G118" s="2">
-        <v>5386.0</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="C119" s="1">
-        <v>0.934</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="D119" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E119" s="1">
         <v>0.65</v>
@@ -3414,136 +3733,136 @@
         <v>13.5</v>
       </c>
       <c r="G119" s="2">
-        <v>4695.0</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C120" s="1">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="D120" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E120" s="1">
-        <v>0.651</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="F120" s="1">
         <v>13.6</v>
       </c>
       <c r="G120" s="2">
-        <v>8795.0</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>8795</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C121" s="1">
-        <v>0.967</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="D121" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E121" s="1">
-        <v>0.648</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="F121" s="1">
         <v>13.3</v>
       </c>
       <c r="G121" s="2">
-        <v>2123.0</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C122" s="1">
-        <v>0.804</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="D122" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E122" s="1">
-        <v>0.569</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="F122" s="1">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G122" s="2">
-        <v>3552.0</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F123" s="1">
         <v>13.9</v>
       </c>
       <c r="G123" s="2">
-        <v>4030.0</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C124" s="1">
-        <v>0.826</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="D124" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E124" s="1">
-        <v>0.579</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="F124" s="1">
         <v>11.5</v>
       </c>
       <c r="G124" s="2">
-        <v>3388.0</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C125" s="1">
-        <v>0.961</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="D125" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E125" s="1">
         <v>0.629</v>
@@ -3552,21 +3871,21 @@
         <v>11.9</v>
       </c>
       <c r="G125" s="2">
-        <v>3150.0</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C126" s="1">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="D126" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E126" s="1">
         <v>0.624</v>
@@ -3575,113 +3894,113 @@
         <v>10.5</v>
       </c>
       <c r="G126" s="2">
-        <v>5132.0</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>5132</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C127" s="1">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="D127" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E127" s="1">
-        <v>0.635</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="F127" s="1">
         <v>11.8</v>
       </c>
       <c r="G127" s="2">
-        <v>7971.0</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>7971</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C128" s="1">
-        <v>0.943</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="D128" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E128" s="1">
-        <v>0.615</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="F128" s="1">
         <v>10.5</v>
       </c>
       <c r="G128" s="2">
-        <v>4346.0</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C130" s="1">
         <v>0.93</v>
       </c>
       <c r="D130" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E130" s="1">
-        <v>0.604</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="F130" s="1">
         <v>10.6</v>
       </c>
       <c r="G130" s="2">
-        <v>2100.0</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C131" s="1">
-        <v>0.942</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="D131" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E131" s="1">
         <v>0.6</v>
@@ -3690,688 +4009,688 @@
         <v>11.6</v>
       </c>
       <c r="G131" s="2">
-        <v>2680.0</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C132" s="1">
-        <v>0.819</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="D132" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E132" s="1">
-        <v>0.549</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="F132" s="1">
         <v>11.9</v>
       </c>
       <c r="G132" s="2">
-        <v>2184.0</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C133" s="1">
         <v>0.9</v>
       </c>
       <c r="D133" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E133" s="1">
-        <v>0.573</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="F133" s="1">
         <v>12.6</v>
       </c>
       <c r="G133" s="2">
-        <v>5657.0</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>5657</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C134" s="1">
-        <v>0.858</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="D134" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E134" s="1">
-        <v>0.558</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="F134" s="1">
         <v>12.1</v>
       </c>
       <c r="G134" s="2">
-        <v>3124.0</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F135" s="1">
         <v>10.4</v>
       </c>
       <c r="G135" s="2">
-        <v>2139.0</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C136" s="1">
-        <v>0.932</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="D136" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E136" s="1">
-        <v>0.568</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="F136" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="G136" s="2">
-        <v>4731.0</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G137" s="2">
-        <v>17462.0</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>17462</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F138" s="1">
         <v>12.3</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="C139" s="1">
-        <v>0.924</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="D139" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E139" s="1">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F139" s="1">
         <v>10.4</v>
       </c>
       <c r="G139" s="2">
-        <v>4408.0</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C140" s="1">
-        <v>0.927</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="D140" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E140" s="1">
-        <v>0.556</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="F140" s="1">
         <v>10.4</v>
       </c>
       <c r="G140" s="2">
-        <v>2379.0</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C141" s="1">
-        <v>0.899</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="D141" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E141" s="1">
-        <v>0.545</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="F141" s="1">
         <v>11.1</v>
       </c>
       <c r="G141" s="2">
-        <v>3200.0</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C142" s="1">
-        <v>0.924</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="D142" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E142" s="1">
-        <v>0.555</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="F142" s="1">
         <v>12.1</v>
       </c>
       <c r="G142" s="2">
-        <v>2803.0</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C143" s="1">
-        <v>0.907</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="D143" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E143" s="1">
-        <v>0.542</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="F143" s="1">
         <v>12.2</v>
       </c>
       <c r="G143" s="2">
-        <v>2000.0</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C144" s="1">
-        <v>0.892</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="D144" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E144" s="1">
-        <v>0.529</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="F144" s="1">
         <v>10.1</v>
       </c>
       <c r="G144" s="2">
-        <v>2650.0</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C145" s="1">
-        <v>0.925</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="D145" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E145" s="1">
-        <v>0.538</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="F145" s="1">
         <v>12.7</v>
       </c>
       <c r="G145" s="2">
-        <v>1979.0</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G146" s="2">
-        <v>4182.0</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C147" s="1">
-        <v>0.919</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="D147" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E147" s="1">
-        <v>0.531</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="F147" s="1">
         <v>10.8</v>
       </c>
       <c r="G147" s="2">
-        <v>2357.0</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C148" s="1">
-        <v>0.742</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="D148" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E148" s="1">
-        <v>0.452</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="F148" s="1">
         <v>7.4</v>
       </c>
       <c r="G148" s="2">
-        <v>1498.0</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C149" s="1">
-        <v>0.853</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="D149" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E149" s="1">
         <v>0.495</v>
       </c>
       <c r="F149" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="G149" s="2">
-        <v>5078.0</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>5078</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C150" s="1">
-        <v>0.851</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="D150" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E150" s="1">
-        <v>0.475</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="F150" s="1">
         <v>8.9</v>
       </c>
       <c r="G150" s="1">
-        <v>835.0</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F151" s="1">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G151" s="2">
-        <v>5073.0</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>5073</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="C152" s="1">
-        <v>0.937</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="D152" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E152" s="1">
-        <v>0.512</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="F152" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G152" s="2">
-        <v>2359.0</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C153" s="1">
-        <v>0.847</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="D153" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E153" s="1">
-        <v>0.482</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="F153" s="1">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G153" s="2">
-        <v>4132.0</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C154" s="1">
-        <v>0.853</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="D154" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E154" s="1">
-        <v>0.474</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="F154" s="1">
         <v>9.6</v>
       </c>
       <c r="G154" s="2">
-        <v>2340.0</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G155" s="2">
-        <v>2362.0</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C156" s="1">
-        <v>0.927</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="D156" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E156" s="1">
         <v>0.496</v>
       </c>
       <c r="F156" s="1">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G156" s="2">
-        <v>1360.0</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F157" s="1">
         <v>9.1</v>
       </c>
       <c r="G157" s="2">
-        <v>1061.0</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C158" s="1">
-        <v>0.818</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="D158" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E158" s="1">
-        <v>0.454</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="F158" s="1">
         <v>8.4</v>
       </c>
       <c r="G158" s="2">
-        <v>1608.0</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C159" s="1">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="D159" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E159" s="1">
         <v>0.5</v>
       </c>
       <c r="F159" s="1">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G159" s="2">
-        <v>1091.0</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C160" s="1">
-        <v>0.992</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="D160" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E160" s="1">
-        <v>0.491</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="F160" s="1">
         <v>11.4</v>
       </c>
       <c r="G160" s="2">
-        <v>1428.0</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C161" s="1">
-        <v>0.817</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="D161" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E161" s="1">
         <v>0.437</v>
@@ -4380,182 +4699,182 @@
         <v>10.9</v>
       </c>
       <c r="G161" s="1">
-        <v>715.0</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C162" s="1">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="D162" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E162" s="1">
-        <v>0.485</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="F162" s="1">
         <v>11.2</v>
       </c>
       <c r="G162" s="2">
-        <v>2631.0</v>
-      </c>
-    </row>
-    <row r="163">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C163" s="1">
-        <v>0.886</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D163" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E163" s="1">
-        <v>0.464</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="F163" s="1">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G163" s="2">
-        <v>1706.0</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G164" s="2">
-        <v>1370.0</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C165" s="1">
         <v>0.878</v>
       </c>
       <c r="D165" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E165" s="1">
-        <v>0.459</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="F165" s="1">
         <v>9.9</v>
       </c>
       <c r="G165" s="2">
-        <v>1266.0</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C166" s="1">
-        <v>0.839</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="D166" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E166" s="1">
         <v>0.441</v>
       </c>
       <c r="F166" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G166" s="2">
-        <v>1902.0</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C167" s="1">
-        <v>0.841</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="D167" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E167" s="1">
-        <v>0.444</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="F167" s="1">
         <v>10.8</v>
       </c>
       <c r="G167" s="2">
-        <v>1116.0</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C168" s="1">
-        <v>0.858</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="D168" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E168" s="1">
-        <v>0.461</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="F168" s="1">
         <v>10.5</v>
       </c>
       <c r="G168" s="2">
-        <v>1673.0</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C169" s="1">
-        <v>0.737</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="D169" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E169" s="1">
         <v>0.4</v>
@@ -4564,389 +4883,389 @@
         <v>7.6</v>
       </c>
       <c r="G169" s="2">
-        <v>1045.0</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C170" s="1">
-        <v>0.609</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="D170" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E170" s="1">
-        <v>0.348</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="F170" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G170" s="1">
-        <v>511.0</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C171" s="1">
-        <v>0.921</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="D171" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E171" s="1">
-        <v>0.455</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="F171" s="1">
         <v>10.7</v>
       </c>
       <c r="G171" s="1">
-        <v>972.0</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C172" s="1">
-        <v>0.814</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="D172" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E172" s="1">
-        <v>0.421</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="F172" s="1">
         <v>7.8</v>
       </c>
       <c r="G172" s="2">
-        <v>2136.0</v>
-      </c>
-    </row>
-    <row r="173">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F173" s="1">
         <v>5.8</v>
       </c>
       <c r="G173" s="2">
-        <v>1981.0</v>
-      </c>
-    </row>
-    <row r="174">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C174" s="1">
         <v>0.878</v>
       </c>
       <c r="D174" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E174" s="1">
-        <v>0.425</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F174" s="1">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G174" s="2">
-        <v>1296.0</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C175" s="1">
-        <v>0.842</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="D175" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E175" s="1">
-        <v>0.408</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="F175" s="1">
         <v>7.9</v>
       </c>
       <c r="G175" s="2">
-        <v>1161.0</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C176" s="1">
-        <v>0.786</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="D176" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E176" s="1">
-        <v>0.385</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="F176" s="1">
         <v>7.5</v>
       </c>
       <c r="G176" s="2">
-        <v>1349.0</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
-        <v>176.0</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="C177" s="1">
-        <v>0.832</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="D177" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E177" s="1">
         <v>0.39</v>
       </c>
       <c r="F177" s="1">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G177" s="1">
-        <v>599.0</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C178" s="1">
         <v>0.83</v>
       </c>
       <c r="D178" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E178" s="1">
-        <v>0.387</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="F178" s="1">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G178" s="1">
-        <v>575.0</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G179" s="2">
-        <v>1139.0</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F180" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G180" s="2">
-        <v>1286.0</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C181" s="1">
         <v>0.871</v>
       </c>
       <c r="D181" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E181" s="1">
-        <v>0.392</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="F181" s="1">
         <v>9.1</v>
       </c>
       <c r="G181" s="2">
-        <v>1354.0</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C182" s="1">
         <v>0.879</v>
       </c>
       <c r="D182" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E182" s="1">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="F182" s="1">
         <v>8.6</v>
       </c>
       <c r="G182" s="2">
-        <v>1016.0</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F183" s="1">
         <v>3.8</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C184" s="1">
-        <v>0.784</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="D184" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E184" s="1">
-        <v>0.364</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="F184" s="1">
         <v>7.5</v>
       </c>
       <c r="G184" s="1">
-        <v>848.0</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C185" s="1">
-        <v>0.919</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="D185" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E185" s="1">
-        <v>0.388</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="F185" s="1">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G185" s="1">
-        <v>632.0</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C186" s="1">
         <v>0.874</v>
       </c>
       <c r="D186" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E186" s="1">
         <v>0.375</v>
@@ -4955,21 +5274,21 @@
         <v>7.3</v>
       </c>
       <c r="G186" s="2">
-        <v>1278.0</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C187" s="1">
-        <v>0.765</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="D187" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E187" s="1">
         <v>0.34</v>
@@ -4978,217 +5297,217 @@
         <v>5.8</v>
       </c>
       <c r="G187" s="2">
-        <v>1581.0</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C188" s="1">
-        <v>0.732</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="D188" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E188" s="1">
-        <v>0.291</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="F188" s="1">
         <v>4.7</v>
       </c>
       <c r="G188" s="1">
-        <v>481.0</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C189" s="1">
-        <v>0.776</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="D189" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E189" s="1">
-        <v>0.306</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="F189" s="1">
         <v>5.8</v>
       </c>
       <c r="G189" s="1">
-        <v>482.0</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
-        <v>189.0</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F190" s="1">
         <v>11.5</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F193" s="1">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F194" s="1">
         <v>15.6</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G195" s="1">
-        <v>170.0</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GDI.xlsx
+++ b/GDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anamakarevich/UdacityProjects/suicide_rates_factors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA61F536-2C84-F24E-BBB0-A01EA21A3DFE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7E09B6-C658-4040-A7FB-6C6B2E2552AA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="203">
   <si>
     <t>HDI rank</t>
   </si>
@@ -364,9 +364,6 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
     <t>Philippines</t>
   </si>
   <si>
@@ -412,9 +409,6 @@
     <t>Bhutan</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Vanuatu</t>
   </si>
   <si>
@@ -457,9 +451,6 @@
     <t>Swaziland</t>
   </si>
   <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
@@ -520,9 +511,6 @@
     <t>Malawi</t>
   </si>
   <si>
-    <t>Côte d'Ivoire</t>
-  </si>
-  <si>
     <t>Djibouti</t>
   </si>
   <si>
@@ -629,6 +617,18 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Timor</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
   </si>
 </sst>
 </file>
@@ -990,13 +990,14 @@
   </sheetPr>
   <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G162" sqref="G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="36.83203125" customWidth="1"/>
+    <col min="3" max="3" width="57.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1024,2118 +1025,2118 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1">
-        <v>0.99299999999999999</v>
+        <v>0.874</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1">
-        <v>0.94399999999999995</v>
+        <v>0.37</v>
       </c>
       <c r="F2" s="1">
-        <v>18.3</v>
+        <v>3.8</v>
       </c>
       <c r="G2" s="2">
-        <v>59800</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="C3" s="1">
-        <v>0.97799999999999998</v>
+        <v>0.874</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1">
-        <v>0.92700000000000005</v>
+        <v>0.37</v>
       </c>
       <c r="F3" s="1">
-        <v>20.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G3" s="2">
-        <v>34271</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>187</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="C4" s="1">
-        <v>0.97399999999999998</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>0.92600000000000005</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="F4" s="1">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2">
-        <v>46798</v>
+        <v>4.7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>188</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="C5" s="1">
-        <v>0.96399999999999997</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>0.90800000000000003</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="F5" s="1">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="G5" s="2">
-        <v>35878</v>
+        <v>5.8</v>
+      </c>
+      <c r="G5" s="1">
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1">
-        <v>0.97</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1">
-        <v>0.91</v>
+        <v>0.34</v>
       </c>
       <c r="F6" s="1">
-        <v>20</v>
+        <v>5.8</v>
       </c>
       <c r="G6" s="2">
-        <v>36857</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>172</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="C7" s="1">
-        <v>0.98499999999999999</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>0.91300000000000003</v>
+        <v>0.34</v>
       </c>
       <c r="F7" s="1">
-        <v>15.5</v>
+        <v>5.8</v>
       </c>
       <c r="G7" s="2">
-        <v>60787</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
+        <v>165</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.441</v>
+      </c>
+      <c r="F8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="F8" s="1">
-        <v>18.2</v>
-      </c>
       <c r="G8" s="2">
-        <v>30117</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="C9" s="1">
-        <v>0.97599999999999998</v>
+        <v>0.874</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1">
-        <v>0.90900000000000003</v>
+        <v>0.375</v>
       </c>
       <c r="F9" s="1">
-        <v>18.600000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="G9" s="2">
-        <v>33497</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="C10" s="1">
-        <v>0.96499999999999997</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1">
-        <v>0.90500000000000003</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="F10" s="1">
-        <v>20.100000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="G10" s="2">
-        <v>30530</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="C11" s="1">
-        <v>0.98299999999999998</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1">
-        <v>0.91100000000000003</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="F11" s="1">
-        <v>16.8</v>
-      </c>
-      <c r="G11" s="2">
-        <v>33288</v>
+        <v>7.5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>848</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="C12" s="1">
-        <v>0.99299999999999999</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1">
-        <v>0.91500000000000004</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="F12" s="1">
-        <v>17.3</v>
+        <v>7.5</v>
       </c>
       <c r="G12" s="2">
-        <v>42272</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="C13" s="1">
-        <v>0.96399999999999997</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1">
-        <v>0.90300000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="F13" s="1">
-        <v>15.8</v>
+        <v>7.6</v>
       </c>
       <c r="G13" s="2">
-        <v>39525</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="C14" s="1">
-        <v>0.96299999999999997</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1">
-        <v>0.89600000000000002</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="F14" s="1">
-        <v>20</v>
+        <v>7.8</v>
       </c>
       <c r="G14" s="2">
-        <v>24413</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="C15" s="1">
-        <v>0.997</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1">
-        <v>0.90900000000000003</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="F15" s="1">
-        <v>16.600000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="G15" s="2">
-        <v>40328</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>168</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.42799999999999999</v>
       </c>
       <c r="F16" s="1">
-        <v>13.5</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1139</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="C17" s="1">
-        <v>0.96399999999999997</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1">
-        <v>0.89</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="F17" s="1">
-        <v>16.7</v>
-      </c>
-      <c r="G17" s="2">
-        <v>26324</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G17" s="1">
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="C18" s="1">
-        <v>0.97</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>0.88700000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="F18" s="1">
-        <v>15.2</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G18" s="2">
-        <v>25385</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="C19" s="1">
-        <v>0.92900000000000005</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="D19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1">
-        <v>0.86299999999999999</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="F19" s="1">
-        <v>15.8</v>
+        <v>8.4</v>
       </c>
       <c r="G19" s="2">
-        <v>21308</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="C20" s="1">
-        <v>0.97299999999999998</v>
+        <v>0.879</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1">
-        <v>0.88400000000000001</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="F20" s="1">
-        <v>16.5</v>
+        <v>8.6</v>
       </c>
       <c r="G20" s="2">
-        <v>23323</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>176</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="C21" s="1">
-        <v>0.96599999999999997</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1">
-        <v>0.88100000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="F21" s="1">
-        <v>14</v>
-      </c>
-      <c r="G21" s="2">
-        <v>47539</v>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G21" s="1">
+        <v>599</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="C22" s="1">
-        <v>0.98799999999999999</v>
+        <v>0.878</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22" s="1">
-        <v>0.89200000000000002</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F22" s="1">
-        <v>16.600000000000001</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G22" s="2">
-        <v>31742</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="C23" s="1">
-        <v>0.97799999999999998</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1">
-        <v>0.88100000000000001</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="F23" s="1">
-        <v>16.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G23" s="2">
-        <v>32416</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1">
-        <v>0.89500000000000002</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="F24" s="1">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G24" s="2">
-        <v>32069</v>
+        <v>8.9</v>
+      </c>
+      <c r="G24" s="1">
+        <v>835</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="C25" s="1">
-        <v>0.95699999999999996</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E25" s="1">
-        <v>0.87</v>
+        <v>0.4</v>
       </c>
       <c r="F25" s="1">
-        <v>16.2</v>
+        <v>9.1</v>
       </c>
       <c r="G25" s="2">
-        <v>29829</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="C26" s="1">
-        <v>1.0029999999999999</v>
+        <v>0.871</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1">
-        <v>0.89</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="F26" s="1">
-        <v>18.100000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="G26" s="2">
-        <v>25654</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C27" s="1">
-        <v>0.96299999999999997</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D27" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E27" s="1">
-        <v>0.86499999999999999</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="F27" s="1">
-        <v>16.7</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G27" s="2">
-        <v>22910</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="C28" s="1">
-        <v>0.97399999999999998</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="D28" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E28" s="1">
-        <v>0.87</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="F28" s="1">
-        <v>18</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G28" s="2">
-        <v>24382</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="C29" s="1">
-        <v>0.98299999999999998</v>
+        <v>0.83</v>
       </c>
       <c r="D29" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1">
-        <v>0.86899999999999999</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="F29" s="1">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G29" s="2">
-        <v>20997</v>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G29" s="1">
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="C30" s="1">
-        <v>0.95699999999999996</v>
+        <v>0.83</v>
       </c>
       <c r="D30" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E30" s="1">
-        <v>0.84399999999999997</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="F30" s="1">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="G30" s="2">
-        <v>17304</v>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G30" s="1">
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="C31" s="1">
-        <v>0.98599999999999999</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E31" s="1">
-        <v>0.85399999999999998</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="F31" s="1">
-        <v>15.4</v>
+        <v>9.6</v>
       </c>
       <c r="G31" s="2">
-        <v>55402</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="C32" s="1">
-        <v>1.032</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="D32" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E32" s="1">
-        <v>0.878</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="F32" s="1">
-        <v>17.3</v>
+        <v>9.6</v>
       </c>
       <c r="G32" s="2">
-        <v>21976</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>20</v>
+        <v>146</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="F33" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2362</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="C34" s="1">
-        <v>0.97899999999999998</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E34" s="1">
-        <v>0.84599999999999997</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="F34" s="1">
-        <v>14.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G34" s="2">
-        <v>23450</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="C35" s="1">
-        <v>0.92300000000000004</v>
+        <v>0.878</v>
       </c>
       <c r="D35" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E35" s="1">
-        <v>0.81699999999999995</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="F35" s="1">
-        <v>14.3</v>
+        <v>9.9</v>
       </c>
       <c r="G35" s="2">
-        <v>17295</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="C36" s="1">
-        <v>0.99099999999999999</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="D36" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E36" s="1">
-        <v>0.85099999999999998</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="F36" s="1">
-        <v>13.5</v>
+        <v>10.1</v>
       </c>
       <c r="G36" s="2">
-        <v>50324</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="C37" s="1">
-        <v>1.006</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="D37" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E37" s="1">
-        <v>0.85699999999999998</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="F37" s="1">
-        <v>17.2</v>
-      </c>
-      <c r="G37" s="2">
-        <v>18928</v>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G37" s="1">
+        <v>632</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="C38" s="1">
-        <v>1.032</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="D38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" s="1">
-        <v>0.86099999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F38" s="1">
-        <v>17.100000000000001</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G38" s="2">
-        <v>22147</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="C39" s="1">
-        <v>0.96599999999999997</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="D39" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" s="1">
-        <v>0.82899999999999996</v>
+        <v>0.496</v>
       </c>
       <c r="F39" s="1">
-        <v>16.600000000000001</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G39" s="2">
-        <v>14955</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="C40" s="1">
-        <v>0.88200000000000001</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="D40" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E40" s="1">
-        <v>0.77900000000000003</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="F40" s="1">
-        <v>15.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G40" s="2">
-        <v>19300</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="C41" s="1">
-        <v>0.99099999999999999</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="D41" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41" s="1">
-        <v>0.83799999999999997</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="F41" s="1">
-        <v>15.5</v>
+        <v>10.4</v>
       </c>
       <c r="G41" s="2">
-        <v>20173</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="C42" s="1">
-        <v>0.98</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="D42" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42" s="1">
-        <v>0.83299999999999996</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="F42" s="1">
-        <v>16.5</v>
+        <v>10.4</v>
       </c>
       <c r="G42" s="2">
-        <v>21095</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="C43" s="1">
-        <v>0.97199999999999998</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="D43" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E43" s="1">
-        <v>0.81499999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F43" s="1">
-        <v>13.9</v>
+        <v>10.4</v>
       </c>
       <c r="G43" s="2">
-        <v>27257</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="C44" s="1">
-        <v>0.98799999999999999</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="D44" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E44" s="1">
-        <v>0.83</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F44" s="1">
-        <v>16</v>
+        <v>10.4</v>
       </c>
       <c r="G44" s="2">
-        <v>17787</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="C45" s="1">
-        <v>1.0249999999999999</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="D45" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E45" s="1">
-        <v>0.84</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="F45" s="1">
-        <v>16.600000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="G45" s="2">
-        <v>18824</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1">
-        <v>0.98199999999999998</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="D46" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46" s="1">
-        <v>0.81299999999999994</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="F46" s="1">
-        <v>18.399999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="G46" s="2">
-        <v>12875</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="C47" s="1">
-        <v>0.997</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="D47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1">
-        <v>0.82699999999999996</v>
+        <v>0.624</v>
       </c>
       <c r="F47" s="1">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="G47" s="2">
-        <v>16932</v>
+        <v>5132</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="C48" s="1">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="D48" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" s="1">
-        <v>0.80600000000000005</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="F48" s="1">
-        <v>15.1</v>
+        <v>10.6</v>
       </c>
       <c r="G48" s="2">
-        <v>25717</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="C49" s="1">
-        <v>0.95499999999999996</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D49" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" s="1">
-        <v>0.78900000000000003</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="F49" s="1">
-        <v>15.7</v>
+        <v>10.6</v>
       </c>
       <c r="G49" s="2">
-        <v>11757</v>
+        <v>9359</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="C50" s="1">
-        <v>1.016</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="D50" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E50" s="1">
-        <v>0.80900000000000005</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="F50" s="1">
-        <v>15.3</v>
-      </c>
-      <c r="G50" s="2">
-        <v>17868</v>
+        <v>10.7</v>
+      </c>
+      <c r="G50" s="1">
+        <v>972</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="C51" s="1">
-        <v>0.99</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="D51" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E51" s="1">
-        <v>0.79600000000000004</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="F51" s="1">
-        <v>15.1</v>
+        <v>10.8</v>
       </c>
       <c r="G51" s="2">
-        <v>16272</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="C52" s="1">
-        <v>0.97199999999999998</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="D52" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E52" s="1">
-        <v>0.76900000000000002</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="F52" s="1">
-        <v>13.6</v>
+        <v>10.8</v>
       </c>
       <c r="G52" s="2">
-        <v>35164</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="C53" s="1">
-        <v>1.0209999999999999</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="D53" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E53" s="1">
-        <v>0.80300000000000005</v>
+        <v>0.437</v>
       </c>
       <c r="F53" s="1">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="G53" s="2">
-        <v>12327</v>
+        <v>10.9</v>
+      </c>
+      <c r="G53" s="1">
+        <v>715</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="C54" s="1">
-        <v>0.92700000000000005</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
       </c>
       <c r="E54" s="1">
-        <v>0.755</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="F54" s="1">
-        <v>13.9</v>
+        <v>11</v>
       </c>
       <c r="G54" s="2">
-        <v>15703</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="C55" s="1">
-        <v>1.006</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="D55" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E55" s="1">
-        <v>0.79500000000000004</v>
+        <v>0.495</v>
       </c>
       <c r="F55" s="1">
-        <v>16.7</v>
+        <v>11</v>
       </c>
       <c r="G55" s="2">
-        <v>11801</v>
+        <v>5078</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="C56" s="1">
-        <v>1.0169999999999999</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E56" s="1">
-        <v>0.79900000000000004</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="F56" s="1">
-        <v>16.600000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="G56" s="2">
-        <v>14608</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="C57" s="1">
-        <v>0.98399999999999999</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="D57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="1">
-        <v>0.78900000000000003</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="F57" s="1">
-        <v>15.3</v>
+        <v>11.2</v>
       </c>
       <c r="G57" s="2">
-        <v>12979</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="C58" s="1">
-        <v>1.006</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
       </c>
       <c r="E58" s="1">
-        <v>0.79500000000000004</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="F58" s="1">
-        <v>15.4</v>
+        <v>11.4</v>
       </c>
       <c r="G58" s="2">
-        <v>16364</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>20</v>
+        <v>120</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="D59" s="1">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="F59" s="1">
+        <v>11.5</v>
       </c>
       <c r="G59" s="2">
-        <v>18070</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>20</v>
+        <v>189</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F60" s="1">
+        <v>11.5</v>
       </c>
       <c r="G60" s="2">
-        <v>17170</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>20</v>
+        <v>126</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="D61" s="1">
+        <v>3</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.6</v>
       </c>
       <c r="F61" s="1">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>20</v>
+        <v>11.6</v>
+      </c>
+      <c r="G61" s="2">
+        <v>2680</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C62" s="1">
-        <v>0.997</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D62" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E62" s="1">
-        <v>0.78300000000000003</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="F62" s="1">
-        <v>13.2</v>
+        <v>11.8</v>
       </c>
       <c r="G62" s="2">
-        <v>14550</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.63500000000000001</v>
       </c>
       <c r="F63" s="1">
-        <v>14.6</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>20</v>
+        <v>11.8</v>
+      </c>
+      <c r="G63" s="2">
+        <v>7971</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>20</v>
+        <v>127</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.54900000000000004</v>
       </c>
       <c r="F64" s="1">
-        <v>14.8</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>20</v>
+        <v>11.9</v>
+      </c>
+      <c r="G64" s="2">
+        <v>2184</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C65" s="1">
-        <v>0.95399999999999996</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="D65" s="1">
         <v>2</v>
       </c>
       <c r="E65" s="1">
-        <v>0.75900000000000001</v>
+        <v>0.629</v>
       </c>
       <c r="F65" s="1">
-        <v>15.5</v>
+        <v>11.9</v>
       </c>
       <c r="G65" s="2">
-        <v>10540</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="C66" s="1">
-        <v>1.004</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="D66" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E66" s="1">
-        <v>0.78600000000000003</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="F66" s="1">
-        <v>14.3</v>
+        <v>12.1</v>
       </c>
       <c r="G66" s="2">
-        <v>21104</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="C67" s="1">
-        <v>0.96899999999999997</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="D67" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E67" s="1">
-        <v>0.76200000000000001</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="F67" s="1">
-        <v>14.5</v>
+        <v>12.1</v>
       </c>
       <c r="G67" s="2">
-        <v>9955</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="C68" s="1">
-        <v>0.96899999999999997</v>
+        <v>1.01</v>
       </c>
       <c r="D68" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" s="1">
-        <v>0.76300000000000001</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="F68" s="1">
-        <v>14.8</v>
+        <v>12.1</v>
       </c>
       <c r="G68" s="2">
-        <v>9600</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C69" s="1">
-        <v>0.94599999999999995</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="D69" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1">
-        <v>0.75</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="F69" s="1">
-        <v>14.4</v>
+        <v>12.1</v>
       </c>
       <c r="G69" s="2">
-        <v>5013</v>
+        <v>6845</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="C70" s="1">
-        <v>0.86199999999999999</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="D70" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E70" s="1">
-        <v>0.7</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="F70" s="1">
-        <v>14.6</v>
+        <v>12.2</v>
       </c>
       <c r="G70" s="2">
-        <v>5132</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="C71" s="1">
-        <v>0.97</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="D71" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E71" s="1">
-        <v>0.754</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="F71" s="1">
-        <v>14.1</v>
+        <v>12.3</v>
       </c>
       <c r="G71" s="2">
-        <v>6105</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="C72" s="1">
-        <v>0.90800000000000003</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="D72" s="1">
         <v>4</v>
       </c>
       <c r="E72" s="1">
-        <v>0.72399999999999998</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="F72" s="1">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="G72" s="2">
-        <v>10648</v>
+        <v>15838</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="C73" s="1">
-        <v>1.028</v>
+        <v>0.9</v>
       </c>
       <c r="D73" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E73" s="1">
-        <v>0.77600000000000002</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="F73" s="1">
-        <v>15.4</v>
+        <v>12.6</v>
       </c>
       <c r="G73" s="2">
-        <v>11579</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="C74" s="1">
-        <v>0.93400000000000005</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="D74" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E74" s="1">
-        <v>0.73399999999999999</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="F74" s="1">
-        <v>14.3</v>
+        <v>12.6</v>
       </c>
       <c r="G74" s="2">
-        <v>6067</v>
+        <v>6138</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>20</v>
+        <v>80</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="D75" s="1">
+        <v>3</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.73199999999999998</v>
       </c>
       <c r="F75" s="1">
-        <v>13.8</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>20</v>
+        <v>12.6</v>
+      </c>
+      <c r="G75" s="2">
+        <v>11029</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="C76" s="1">
-        <v>0.95899999999999996</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="D76" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E76" s="1">
-        <v>0.747</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="F76" s="1">
-        <v>14.4</v>
+        <v>12.7</v>
       </c>
       <c r="G76" s="2">
-        <v>7365</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C77" s="1">
-        <v>0.89300000000000002</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="D77" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E77" s="1">
-        <v>0.70899999999999996</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="F77" s="1">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="G77" s="2">
-        <v>5844</v>
+        <v>7155</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C78" s="1">
-        <v>0.95099999999999996</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="D78" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78" s="1">
-        <v>0.73699999999999999</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="F78" s="1">
-        <v>13.5</v>
+        <v>12.8</v>
       </c>
       <c r="G78" s="2">
-        <v>10710</v>
+        <v>13278</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="C79" s="1">
-        <v>0.94</v>
+        <v>1.01</v>
       </c>
       <c r="D79" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E79" s="1">
-        <v>0.73199999999999998</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="F79" s="1">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="G79" s="2">
-        <v>11029</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C80" s="1">
-        <v>1.0049999999999999</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="D80" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E80" s="1">
-        <v>0.754</v>
+        <v>0.66</v>
       </c>
       <c r="F80" s="1">
-        <v>15.7</v>
+        <v>12.9</v>
       </c>
       <c r="G80" s="2">
-        <v>10672</v>
+        <v>6668</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>20</v>
+        <v>92</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0.66300000000000003</v>
       </c>
       <c r="F81" s="1">
-        <v>16.2</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="G81" s="2">
+        <v>4695</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C82" s="1">
-        <v>0.92300000000000004</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="D82" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E82" s="1">
-        <v>0.72099999999999997</v>
+        <v>0.64</v>
       </c>
       <c r="F82" s="1">
-        <v>14.8</v>
+        <v>13</v>
       </c>
       <c r="G82" s="2">
-        <v>6950</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="C83" s="1">
-        <v>0.94699999999999995</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="D83" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E83" s="1">
-        <v>0.72499999999999998</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="F83" s="1">
         <v>13</v>
       </c>
       <c r="G83" s="2">
-        <v>9050</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C84" s="1">
-        <v>0.85399999999999998</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D84" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E84" s="1">
-        <v>0.66500000000000004</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="F84" s="1">
-        <v>14.6</v>
+        <v>13</v>
       </c>
       <c r="G84" s="2">
-        <v>4022</v>
+        <v>5386</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C85" s="1">
-        <v>0.99299999999999999</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="D85" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E85" s="1">
-        <v>0.73599999999999999</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="F85" s="1">
-        <v>13.8</v>
+        <v>13</v>
       </c>
       <c r="G85" s="2">
-        <v>5535</v>
+        <v>5844</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="C86" s="1">
-        <v>1</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="D86" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E86" s="1">
-        <v>0.74099999999999999</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="F86" s="1">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="G86" s="2">
-        <v>5791</v>
+        <v>9050</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C87" s="1">
-        <v>0.86399999999999999</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="D87" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E87" s="1">
-        <v>0.67</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="F87" s="1">
-        <v>13.4</v>
+        <v>13</v>
       </c>
       <c r="G87" s="2">
-        <v>3203</v>
+        <v>10501</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C88" s="1">
-        <v>0.95899999999999996</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
       </c>
       <c r="E88" s="1">
-        <v>0.72299999999999998</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="F88" s="1">
-        <v>13.5</v>
+        <v>13.1</v>
       </c>
       <c r="G88" s="2">
-        <v>8939</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C89" s="1">
-        <v>1.0009999999999999</v>
+        <v>0.997</v>
       </c>
       <c r="D89" s="1">
         <v>1</v>
       </c>
       <c r="E89" s="1">
-        <v>0.74</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="F89" s="1">
-        <v>14.1</v>
+        <v>13.2</v>
       </c>
       <c r="G89" s="2">
-        <v>12938</v>
+        <v>14550</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C90" s="1">
-        <v>0.97599999999999998</v>
+        <v>0.997</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
       </c>
       <c r="E90" s="1">
-        <v>0.73</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="F90" s="1">
-        <v>14.4</v>
+        <v>13.2</v>
       </c>
       <c r="G90" s="2">
-        <v>8278</v>
+        <v>18070</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C91" s="1">
-        <v>0.95399999999999996</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="D91" s="1">
         <v>2</v>
       </c>
       <c r="E91" s="1">
-        <v>0.71799999999999997</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="F91" s="1">
-        <v>13.7</v>
+        <v>13.3</v>
       </c>
       <c r="G91" s="2">
-        <v>10705</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>20</v>
+        <v>105</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="D92" s="1">
+        <v>2</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="F92" s="1">
+        <v>13.3</v>
       </c>
       <c r="G92" s="2">
-        <v>4695</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C93" s="1">
-        <v>1.026</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="D93" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E93" s="1">
-        <v>0.74399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F93" s="1">
-        <v>15.5</v>
+        <v>13.4</v>
       </c>
       <c r="G93" s="2">
-        <v>8809</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -3163,562 +3164,562 @@
     </row>
     <row r="95" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="C95" s="1">
-        <v>0.97499999999999998</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="D95" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E95" s="1">
-        <v>0.71899999999999997</v>
+        <v>0.65</v>
       </c>
       <c r="F95" s="1">
-        <v>13.1</v>
+        <v>13.5</v>
       </c>
       <c r="G95" s="2">
-        <v>6628</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C96" s="1">
-        <v>1.004</v>
+        <v>0.95</v>
       </c>
       <c r="D96" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" s="1">
-        <v>0.73099999999999998</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="F96" s="1">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="G96" s="2">
-        <v>10215</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>20</v>
+        <v>88</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D97" s="1">
+        <v>2</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="F97" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="G97" s="2">
+        <v>8939</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C98" s="1">
-        <v>0.97199999999999998</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
       </c>
       <c r="E98" s="1">
-        <v>0.70899999999999996</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="F98" s="1">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="G98" s="2">
-        <v>10501</v>
+        <v>10710</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="C99" s="1">
-        <v>0.90400000000000003</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="D99" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E99" s="1">
-        <v>0.68</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="F99" s="1">
-        <v>15.1</v>
+        <v>13.5</v>
       </c>
       <c r="G99" s="2">
-        <v>4662</v>
+        <v>47539</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="C100" s="1">
-        <v>0.99</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="D100" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" s="1">
-        <v>0.71699999999999997</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="F100" s="1">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="G100" s="2">
-        <v>9281</v>
+        <v>47539</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0.85099999999999998</v>
       </c>
       <c r="F101" s="1">
         <v>13.5</v>
       </c>
       <c r="G101" s="2">
-        <v>7600</v>
+        <v>50324</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C102" s="1">
-        <v>0.96899999999999997</v>
+        <v>0.95</v>
       </c>
       <c r="D102" s="1">
         <v>2</v>
       </c>
       <c r="E102" s="1">
-        <v>0.70699999999999996</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="F102" s="1">
-        <v>14.6</v>
+        <v>13.6</v>
       </c>
       <c r="G102" s="2">
-        <v>3959</v>
+        <v>7163</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C103" s="1">
-        <v>0.95</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="D103" s="1">
         <v>2</v>
       </c>
       <c r="E103" s="1">
-        <v>0.69099999999999995</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="F103" s="1">
         <v>13.6</v>
       </c>
       <c r="G103" s="2">
-        <v>7163</v>
+        <v>8795</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C104" s="1">
-        <v>0.96699999999999997</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="D104" s="1">
         <v>2</v>
       </c>
       <c r="E104" s="1">
-        <v>0.69299999999999995</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="F104" s="1">
-        <v>13</v>
+        <v>13.6</v>
       </c>
       <c r="G104" s="2">
-        <v>5360</v>
+        <v>35164</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>20</v>
+        <v>192</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="D105" s="1">
+        <v>5</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0.61599999999999999</v>
       </c>
       <c r="F105" s="1">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="G105" s="2">
-        <v>3444</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C106" s="1">
-        <v>0.93700000000000006</v>
+        <v>0.99</v>
       </c>
       <c r="D106" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E106" s="1">
-        <v>0.67600000000000005</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="F106" s="1">
-        <v>12.8</v>
+        <v>13.7</v>
       </c>
       <c r="G106" s="2">
-        <v>7155</v>
+        <v>9281</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C107" s="1">
-        <v>0.94599999999999995</v>
+        <v>0.99</v>
       </c>
       <c r="D107" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E107" s="1">
-        <v>0.67200000000000004</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="F107" s="1">
-        <v>11.8</v>
+        <v>13.7</v>
       </c>
       <c r="G107" s="2">
-        <v>3891</v>
+        <v>9281</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="C108" s="1">
-        <v>1.01</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="D108" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108" s="1">
-        <v>0.70199999999999996</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="F108" s="1">
-        <v>12.1</v>
+        <v>13.7</v>
       </c>
       <c r="G108" s="2">
-        <v>4461</v>
+        <v>10705</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C109" s="1">
-        <v>0.98399999999999999</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="D109" s="1">
         <v>1</v>
       </c>
       <c r="E109" s="1">
-        <v>0.69299999999999995</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="F109" s="1">
-        <v>12.8</v>
+        <v>13.8</v>
       </c>
       <c r="G109" s="2">
-        <v>13278</v>
+        <v>5535</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C110" s="1">
-        <v>0.92300000000000004</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="D110" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E110" s="1">
-        <v>0.66900000000000004</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="F110" s="1">
-        <v>12.5</v>
+        <v>13.8</v>
       </c>
       <c r="G110" s="2">
-        <v>15838</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C111" s="1">
-        <v>0.96599999999999997</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="D111" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E111" s="1">
-        <v>0.67900000000000005</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="F111" s="1">
-        <v>12.6</v>
+        <v>13.9</v>
       </c>
       <c r="G111" s="2">
-        <v>6138</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="C112" s="1">
-        <v>0.88400000000000001</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="D112" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E112" s="1">
-        <v>0.64</v>
+        <v>0.755</v>
       </c>
       <c r="F112" s="1">
-        <v>13</v>
+        <v>13.9</v>
       </c>
       <c r="G112" s="2">
-        <v>4750</v>
+        <v>15703</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D113" s="1">
+        <v>2</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0.81499999999999995</v>
       </c>
       <c r="F113" s="1">
-        <v>10.6</v>
+        <v>13.9</v>
       </c>
       <c r="G113" s="2">
-        <v>9359</v>
+        <v>27257</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="C114" s="1">
-        <v>0.92600000000000005</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="D114" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E114" s="1">
-        <v>0.66</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="F114" s="1">
-        <v>12.9</v>
+        <v>14</v>
       </c>
       <c r="G114" s="2">
-        <v>6668</v>
+        <v>10648</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c r="C115" s="1">
-        <v>0.86699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="D115" s="1">
         <v>5</v>
       </c>
       <c r="E115" s="1">
-        <v>0.61599999999999999</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="F115" s="1">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="G115" s="2">
-        <v>1766</v>
+        <v>17170</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="C116" s="1">
-        <v>1.01</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="D116" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E116" s="1">
-        <v>0.68700000000000006</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="F116" s="1">
-        <v>12.9</v>
+        <v>14</v>
       </c>
       <c r="G116" s="2">
-        <v>4834</v>
+        <v>47539</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="C117" s="1">
-        <v>1.0009999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="D117" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E117" s="1">
-        <v>0.68200000000000005</v>
+        <v>0.754</v>
       </c>
       <c r="F117" s="1">
-        <v>12.1</v>
+        <v>14.1</v>
       </c>
       <c r="G117" s="2">
-        <v>6845</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C118" s="1">
-        <v>0.95799999999999996</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="D118" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E118" s="1">
-        <v>0.66300000000000003</v>
+        <v>0.74</v>
       </c>
       <c r="F118" s="1">
-        <v>13</v>
+        <v>14.1</v>
       </c>
       <c r="G118" s="2">
-        <v>5386</v>
+        <v>12938</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="C119" s="1">
         <v>0.93400000000000005</v>
@@ -3727,1723 +3728,1723 @@
         <v>3</v>
       </c>
       <c r="E119" s="1">
-        <v>0.65</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="F119" s="1">
-        <v>13.5</v>
+        <v>14.3</v>
       </c>
       <c r="G119" s="2">
-        <v>4695</v>
+        <v>6067</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="C120" s="1">
-        <v>0.96199999999999997</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="D120" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E120" s="1">
-        <v>0.65100000000000002</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="F120" s="1">
-        <v>13.6</v>
+        <v>14.3</v>
       </c>
       <c r="G120" s="2">
-        <v>8795</v>
+        <v>17295</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C121" s="1">
-        <v>0.96699999999999997</v>
+        <v>1.004</v>
       </c>
       <c r="D121" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121" s="1">
-        <v>0.64800000000000002</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="F121" s="1">
-        <v>13.3</v>
+        <v>14.3</v>
       </c>
       <c r="G121" s="2">
-        <v>2123</v>
+        <v>21104</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="C122" s="1">
-        <v>0.80400000000000005</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D122" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E122" s="1">
-        <v>0.56899999999999995</v>
+        <v>0.75</v>
       </c>
       <c r="F122" s="1">
-        <v>9.6999999999999993</v>
+        <v>14.4</v>
       </c>
       <c r="G122" s="2">
-        <v>3552</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>20</v>
+        <v>77</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D123" s="1">
+        <v>2</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0.747</v>
       </c>
       <c r="F123" s="1">
-        <v>13.9</v>
+        <v>14.4</v>
       </c>
       <c r="G123" s="2">
-        <v>4030</v>
+        <v>7365</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C124" s="1">
-        <v>0.82599999999999996</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="D124" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E124" s="1">
-        <v>0.57899999999999996</v>
+        <v>0.73</v>
       </c>
       <c r="F124" s="1">
-        <v>11.5</v>
+        <v>14.4</v>
       </c>
       <c r="G124" s="2">
-        <v>3388</v>
+        <v>8278</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="C125" s="1">
-        <v>0.96099999999999997</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="D125" s="1">
         <v>2</v>
       </c>
       <c r="E125" s="1">
-        <v>0.629</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="F125" s="1">
-        <v>11.9</v>
+        <v>14.5</v>
       </c>
       <c r="G125" s="2">
-        <v>3150</v>
+        <v>9955</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C126" s="1">
-        <v>0.95899999999999996</v>
+        <v>1.004</v>
       </c>
       <c r="D126" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E126" s="1">
-        <v>0.624</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="F126" s="1">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="G126" s="2">
-        <v>5132</v>
+        <v>10215</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C127" s="1">
-        <v>0.98599999999999999</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="D127" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127" s="1">
-        <v>0.63500000000000001</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="F127" s="1">
-        <v>11.8</v>
+        <v>14.6</v>
       </c>
       <c r="G127" s="2">
-        <v>7971</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="C128" s="1">
-        <v>0.94299999999999995</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="D128" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E128" s="1">
-        <v>0.61499999999999999</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="F128" s="1">
-        <v>10.5</v>
+        <v>14.6</v>
       </c>
       <c r="G128" s="2">
-        <v>4346</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>20</v>
+        <v>187</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="D129" s="1">
+        <v>5</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F129" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="G129" s="2">
+        <v>5132</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="C130" s="1">
-        <v>0.93</v>
+        <v>1.004</v>
       </c>
       <c r="D130" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E130" s="1">
-        <v>0.60399999999999998</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="F130" s="1">
-        <v>10.6</v>
+        <v>14.6</v>
       </c>
       <c r="G130" s="2">
-        <v>2100</v>
+        <v>21104</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="C131" s="1">
-        <v>0.94199999999999995</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="D131" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E131" s="1">
-        <v>0.6</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F131" s="1">
-        <v>11.6</v>
+        <v>14.7</v>
       </c>
       <c r="G131" s="2">
-        <v>2680</v>
+        <v>23450</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="C132" s="1">
-        <v>0.81899999999999995</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="D132" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E132" s="1">
-        <v>0.54900000000000004</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="F132" s="1">
-        <v>11.9</v>
+        <v>14.8</v>
       </c>
       <c r="G132" s="2">
-        <v>2184</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="C133" s="1">
-        <v>0.9</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="D133" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E133" s="1">
-        <v>0.57299999999999995</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="F133" s="1">
-        <v>12.6</v>
+        <v>14.8</v>
       </c>
       <c r="G133" s="2">
-        <v>5657</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="C134" s="1">
-        <v>0.85799999999999998</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="D134" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E134" s="1">
-        <v>0.55800000000000005</v>
+        <v>0.68</v>
       </c>
       <c r="F134" s="1">
-        <v>12.1</v>
+        <v>14.8</v>
       </c>
       <c r="G134" s="2">
-        <v>3124</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>20</v>
+        <v>99</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="D135" s="1">
+        <v>4</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0.68</v>
       </c>
       <c r="F135" s="1">
-        <v>10.4</v>
+        <v>15.1</v>
       </c>
       <c r="G135" s="2">
-        <v>2139</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="C136" s="1">
-        <v>0.93200000000000005</v>
+        <v>0.99</v>
       </c>
       <c r="D136" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E136" s="1">
-        <v>0.56799999999999995</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="F136" s="1">
-        <v>11</v>
+        <v>15.1</v>
       </c>
       <c r="G136" s="2">
-        <v>4731</v>
+        <v>16272</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="D137" s="1">
+        <v>2</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="F137" s="1">
+        <v>15.1</v>
       </c>
       <c r="G137" s="2">
-        <v>17462</v>
+        <v>25717</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="D138" s="1">
+        <v>2</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0.88700000000000001</v>
       </c>
       <c r="F138" s="1">
-        <v>12.3</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>20</v>
+        <v>15.2</v>
+      </c>
+      <c r="G138" s="2">
+        <v>25385</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="C139" s="1">
-        <v>0.92400000000000004</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="D139" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E139" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="F139" s="1">
-        <v>10.4</v>
+        <v>15.3</v>
       </c>
       <c r="G139" s="2">
-        <v>4408</v>
+        <v>12979</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="C140" s="1">
-        <v>0.92700000000000005</v>
+        <v>1.016</v>
       </c>
       <c r="D140" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E140" s="1">
-        <v>0.55600000000000005</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="F140" s="1">
-        <v>10.4</v>
+        <v>15.3</v>
       </c>
       <c r="G140" s="2">
-        <v>2379</v>
+        <v>17868</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="C141" s="1">
-        <v>0.89900000000000002</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D141" s="1">
         <v>5</v>
       </c>
       <c r="E141" s="1">
-        <v>0.54500000000000004</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="F141" s="1">
-        <v>11.1</v>
+        <v>15.3</v>
       </c>
       <c r="G141" s="2">
-        <v>3200</v>
+        <v>19300</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="C142" s="1">
-        <v>0.92400000000000004</v>
+        <v>1.028</v>
       </c>
       <c r="D142" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E142" s="1">
-        <v>0.55500000000000005</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="F142" s="1">
-        <v>12.1</v>
+        <v>15.4</v>
       </c>
       <c r="G142" s="2">
-        <v>2803</v>
+        <v>11579</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="C143" s="1">
-        <v>0.90700000000000003</v>
+        <v>1.006</v>
       </c>
       <c r="D143" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E143" s="1">
-        <v>0.54200000000000004</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="F143" s="1">
-        <v>12.2</v>
+        <v>15.4</v>
       </c>
       <c r="G143" s="2">
-        <v>2000</v>
+        <v>16364</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="C144" s="1">
-        <v>0.89200000000000002</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="D144" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E144" s="1">
-        <v>0.52900000000000003</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="F144" s="1">
-        <v>10.1</v>
+        <v>15.4</v>
       </c>
       <c r="G144" s="2">
-        <v>2650</v>
+        <v>55402</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="C145" s="1">
-        <v>0.92500000000000004</v>
+        <v>1</v>
       </c>
       <c r="D145" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E145" s="1">
-        <v>0.53800000000000003</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="F145" s="1">
-        <v>12.7</v>
+        <v>15.5</v>
       </c>
       <c r="G145" s="2">
-        <v>1979</v>
+        <v>5791</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>20</v>
+        <v>93</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1.026</v>
+      </c>
+      <c r="D146" s="1">
+        <v>2</v>
+      </c>
+      <c r="E146" s="1">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="F146" s="1">
+        <v>15.5</v>
       </c>
       <c r="G146" s="2">
-        <v>4182</v>
+        <v>8809</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="C147" s="1">
-        <v>0.91900000000000004</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="D147" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E147" s="1">
-        <v>0.53100000000000003</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="F147" s="1">
-        <v>10.8</v>
+        <v>15.5</v>
       </c>
       <c r="G147" s="2">
-        <v>2357</v>
+        <v>10540</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="C148" s="1">
-        <v>0.74199999999999999</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="D148" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E148" s="1">
-        <v>0.45200000000000001</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="F148" s="1">
-        <v>7.4</v>
+        <v>15.5</v>
       </c>
       <c r="G148" s="2">
-        <v>1498</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
-        <v>148</v>
+        <v>5</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="C149" s="1">
-        <v>0.85299999999999998</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="D149" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E149" s="1">
-        <v>0.495</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="F149" s="1">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="G149" s="2">
-        <v>5078</v>
+        <v>60787</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="C150" s="1">
-        <v>0.85099999999999998</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="D150" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E150" s="1">
-        <v>0.47499999999999998</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="F150" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="G150" s="1">
-        <v>835</v>
+        <v>15.6</v>
+      </c>
+      <c r="G150" s="2">
+        <v>20000</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D151" s="1">
+        <v>1</v>
+      </c>
+      <c r="E151" s="1">
+        <v>0.754</v>
       </c>
       <c r="F151" s="1">
-        <v>8.6999999999999993</v>
+        <v>15.7</v>
       </c>
       <c r="G151" s="2">
-        <v>5073</v>
+        <v>10672</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="C152" s="1">
-        <v>0.93700000000000006</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="D152" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E152" s="1">
-        <v>0.51200000000000001</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="F152" s="1">
-        <v>8.3000000000000007</v>
+        <v>15.7</v>
       </c>
       <c r="G152" s="2">
-        <v>2359</v>
+        <v>11757</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="C153" s="1">
-        <v>0.84699999999999998</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="D153" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E153" s="1">
-        <v>0.48199999999999998</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="F153" s="1">
-        <v>9.1999999999999993</v>
+        <v>15.8</v>
       </c>
       <c r="G153" s="2">
-        <v>4132</v>
+        <v>21308</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="C154" s="1">
-        <v>0.85299999999999998</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="D154" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E154" s="1">
-        <v>0.47399999999999998</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="F154" s="1">
-        <v>9.6</v>
+        <v>15.8</v>
       </c>
       <c r="G154" s="2">
-        <v>2340</v>
+        <v>39525</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="C155" s="1">
+        <v>0.997</v>
+      </c>
+      <c r="D155" s="1">
+        <v>1</v>
+      </c>
+      <c r="E155" s="1">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="F155" s="1">
+        <v>16</v>
       </c>
       <c r="G155" s="2">
-        <v>2362</v>
+        <v>16932</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C156" s="1">
-        <v>0.92700000000000005</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="D156" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E156" s="1">
-        <v>0.496</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="F156" s="1">
-        <v>10.199999999999999</v>
+        <v>16</v>
       </c>
       <c r="G156" s="2">
-        <v>1360</v>
+        <v>17462</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="C157" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="D157" s="1">
+        <v>1</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0.83</v>
       </c>
       <c r="F157" s="1">
-        <v>9.1</v>
+        <v>16</v>
       </c>
       <c r="G157" s="2">
-        <v>1061</v>
+        <v>17787</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
-        <v>157</v>
+        <v>2</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="C158" s="1">
-        <v>0.81799999999999995</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="D158" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E158" s="1">
-        <v>0.45400000000000001</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="F158" s="1">
-        <v>8.4</v>
+        <v>16</v>
       </c>
       <c r="G158" s="2">
-        <v>1608</v>
+        <v>46798</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="C159" s="1">
-        <v>0.94799999999999995</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="D159" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E159" s="1">
-        <v>0.5</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="F159" s="1">
-        <v>10.199999999999999</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G159" s="2">
-        <v>1091</v>
+        <v>12327</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="C160" s="1">
-        <v>0.99199999999999999</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D160" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E160" s="1">
-        <v>0.49099999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F160" s="1">
-        <v>11.4</v>
+        <v>16.2</v>
       </c>
       <c r="G160" s="2">
-        <v>1428</v>
+        <v>29829</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="C161" s="1">
-        <v>0.81699999999999995</v>
+        <v>0.98</v>
       </c>
       <c r="D161" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E161" s="1">
-        <v>0.437</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="F161" s="1">
-        <v>10.9</v>
-      </c>
-      <c r="G161" s="1">
-        <v>715</v>
+        <v>16.2</v>
+      </c>
+      <c r="G161" s="2">
+        <v>12000</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="C162" s="1">
-        <v>0.96199999999999997</v>
+        <v>0.98</v>
       </c>
       <c r="D162" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E162" s="1">
-        <v>0.48499999999999999</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="F162" s="1">
-        <v>11.2</v>
+        <v>16.5</v>
       </c>
       <c r="G162" s="2">
-        <v>2631</v>
+        <v>21095</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="C163" s="1">
-        <v>0.88600000000000001</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="D163" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E163" s="1">
-        <v>0.46400000000000002</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="F163" s="1">
-        <v>9.1999999999999993</v>
+        <v>16.5</v>
       </c>
       <c r="G163" s="2">
-        <v>1706</v>
+        <v>23323</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="D164" s="1">
+        <v>1</v>
+      </c>
+      <c r="E164" s="1">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="F164" s="1">
+        <v>16.600000000000001</v>
       </c>
       <c r="G164" s="2">
-        <v>1370</v>
+        <v>14608</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="C165" s="1">
-        <v>0.878</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="D165" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E165" s="1">
-        <v>0.45900000000000002</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="F165" s="1">
-        <v>9.9</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G165" s="2">
-        <v>1266</v>
+        <v>14955</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="C166" s="1">
-        <v>0.83899999999999997</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="D166" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E166" s="1">
-        <v>0.441</v>
+        <v>0.84</v>
       </c>
       <c r="F166" s="1">
-        <v>7</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G166" s="2">
-        <v>1902</v>
+        <v>18824</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="C167" s="1">
-        <v>0.84099999999999997</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="D167" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E167" s="1">
-        <v>0.44400000000000001</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="F167" s="1">
-        <v>10.8</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G167" s="2">
-        <v>1116</v>
+        <v>31742</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="C168" s="1">
-        <v>0.85799999999999998</v>
+        <v>0.997</v>
       </c>
       <c r="D168" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E168" s="1">
-        <v>0.46100000000000002</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="F168" s="1">
-        <v>10.5</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G168" s="2">
-        <v>1673</v>
+        <v>40328</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="C169" s="1">
-        <v>0.73699999999999999</v>
+        <v>1.006</v>
       </c>
       <c r="D169" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E169" s="1">
-        <v>0.4</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="F169" s="1">
-        <v>7.6</v>
+        <v>16.7</v>
       </c>
       <c r="G169" s="2">
-        <v>1045</v>
+        <v>11801</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="C170" s="1">
-        <v>0.60899999999999999</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D170" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E170" s="1">
-        <v>0.34799999999999998</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="F170" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G170" s="1">
-        <v>511</v>
+        <v>16.7</v>
+      </c>
+      <c r="G170" s="2">
+        <v>22910</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="C171" s="1">
-        <v>0.92100000000000004</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="D171" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E171" s="1">
-        <v>0.45500000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="F171" s="1">
-        <v>10.7</v>
-      </c>
-      <c r="G171" s="1">
-        <v>972</v>
+        <v>16.7</v>
+      </c>
+      <c r="G171" s="2">
+        <v>26324</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="C172" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="D172" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E172" s="1">
-        <v>0.42099999999999999</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="F172" s="1">
-        <v>7.8</v>
+        <v>16.7</v>
       </c>
       <c r="G172" s="2">
-        <v>2136</v>
+        <v>32416</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="C173" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D173" s="1">
+        <v>1</v>
+      </c>
+      <c r="E173" s="1">
+        <v>0.91100000000000003</v>
       </c>
       <c r="F173" s="1">
-        <v>5.8</v>
+        <v>16.8</v>
       </c>
       <c r="G173" s="2">
-        <v>1981</v>
+        <v>33288</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
-        <v>173</v>
+        <v>4</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="C174" s="1">
-        <v>0.878</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="D174" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E174" s="1">
-        <v>0.42499999999999999</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="F174" s="1">
-        <v>8.6999999999999993</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G174" s="2">
-        <v>1296</v>
+        <v>35878</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="C175" s="1">
-        <v>0.84199999999999997</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D175" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E175" s="1">
-        <v>0.40799999999999997</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="F175" s="1">
-        <v>7.9</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="G175" s="2">
-        <v>1161</v>
+        <v>17304</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="C176" s="1">
-        <v>0.78600000000000003</v>
+        <v>1.032</v>
       </c>
       <c r="D176" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E176" s="1">
-        <v>0.38500000000000001</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="F176" s="1">
-        <v>7.5</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="G176" s="2">
-        <v>1349</v>
+        <v>22147</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
-        <v>176</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>198</v>
+        <v>37</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C177" s="1">
-        <v>0.83199999999999996</v>
+        <v>1.032</v>
       </c>
       <c r="D177" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E177" s="1">
-        <v>0.39</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="F177" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G177" s="1">
-        <v>599</v>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G177" s="2">
+        <v>22147</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="C178" s="1">
-        <v>0.83</v>
+        <v>1.006</v>
       </c>
       <c r="D178" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E178" s="1">
-        <v>0.38700000000000001</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="F178" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G178" s="1">
-        <v>575</v>
+        <v>17.2</v>
+      </c>
+      <c r="G178" s="2">
+        <v>18928</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="C179" s="1">
+        <v>1.032</v>
+      </c>
+      <c r="D179" s="1">
+        <v>2</v>
+      </c>
+      <c r="E179" s="1">
+        <v>0.878</v>
+      </c>
+      <c r="F179" s="1">
+        <v>17.3</v>
       </c>
       <c r="G179" s="2">
-        <v>1139</v>
+        <v>21976</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>20</v>
+        <v>198</v>
+      </c>
+      <c r="C180" s="1">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D180" s="1">
+        <v>1</v>
+      </c>
+      <c r="E180" s="1">
+        <v>0.91500000000000004</v>
       </c>
       <c r="F180" s="1">
-        <v>4.4000000000000004</v>
+        <v>17.3</v>
       </c>
       <c r="G180" s="2">
-        <v>1286</v>
+        <v>42272</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="C181" s="1">
-        <v>0.871</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="D181" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E181" s="1">
-        <v>0.39200000000000002</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="F181" s="1">
-        <v>9.1</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="G181" s="2">
-        <v>1354</v>
+        <v>20997</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="C182" s="1">
-        <v>0.879</v>
+        <v>1</v>
       </c>
       <c r="D182" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E182" s="1">
-        <v>0.39100000000000001</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="F182" s="1">
-        <v>8.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="G182" s="2">
-        <v>1016</v>
+        <v>32069</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="C183" s="1">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="D183" s="1">
+        <v>2</v>
+      </c>
+      <c r="E183" s="1">
+        <v>0.90300000000000002</v>
       </c>
       <c r="F183" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>20</v>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G183" s="2">
+        <v>39525</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="C184" s="1">
-        <v>0.78400000000000003</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="D184" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E184" s="1">
-        <v>0.36399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F184" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="G184" s="1">
-        <v>848</v>
+        <v>18</v>
+      </c>
+      <c r="G184" s="2">
+        <v>24382</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="C185" s="1">
-        <v>0.91900000000000004</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D185" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E185" s="1">
-        <v>0.38800000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="F185" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G185" s="1">
-        <v>632</v>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G185" s="2">
+        <v>25654</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="C186" s="1">
-        <v>0.874</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D186" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E186" s="1">
-        <v>0.375</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="F186" s="1">
-        <v>7.3</v>
+        <v>18.2</v>
       </c>
       <c r="G186" s="2">
-        <v>1278</v>
+        <v>30117</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="C187" s="1">
-        <v>0.76500000000000001</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="D187" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E187" s="1">
-        <v>0.34</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="F187" s="1">
-        <v>5.8</v>
+        <v>18.3</v>
       </c>
       <c r="G187" s="2">
-        <v>1581</v>
+        <v>59800</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c r="C188" s="1">
-        <v>0.73199999999999998</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="D188" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E188" s="1">
-        <v>0.29099999999999998</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="F188" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="G188" s="1">
-        <v>481</v>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G188" s="2">
+        <v>12875</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="C189" s="1">
-        <v>0.77600000000000002</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="D189" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E189" s="1">
-        <v>0.30599999999999999</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="F189" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="G189" s="1">
-        <v>482</v>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G189" s="2">
+        <v>33497</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
-        <v>189</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C190" s="1">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="D190" s="1">
+        <v>2</v>
+      </c>
+      <c r="E190" s="1">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F190" s="1">
         <v>20</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F190" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>20</v>
+      <c r="G190" s="2">
+        <v>24413</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C191" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="D191" s="1">
+        <v>2</v>
+      </c>
+      <c r="E191" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="F191" s="1">
         <v>20</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>20</v>
+      <c r="G191" s="2">
+        <v>36857</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C192" s="1">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="D192" s="1">
+        <v>2</v>
+      </c>
+      <c r="E192" s="1">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="F192" s="1">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G192" s="2">
+        <v>30530</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
-        <v>192</v>
+        <v>2</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="C193" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D193" s="1">
+        <v>1</v>
+      </c>
+      <c r="E193" s="1">
+        <v>0.92700000000000005</v>
       </c>
       <c r="F193" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>20</v>
+        <v>20.9</v>
+      </c>
+      <c r="G193" s="2">
+        <v>34271</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>20</v>
@@ -5454,8 +5455,8 @@
       <c r="E194" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F194" s="1">
-        <v>15.6</v>
+      <c r="F194" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>20</v>
@@ -5463,10 +5464,10 @@
     </row>
     <row r="195" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>20</v>
@@ -5480,8 +5481,8 @@
       <c r="F195" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G195" s="1">
-        <v>170</v>
+      <c r="G195" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -5489,7 +5490,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>20</v>
@@ -5508,6 +5509,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G196">
+    <sortCondition ref="F2:F196"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GDI.xlsx
+++ b/GDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anamakarevich/UdacityProjects/suicide_rates_factors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7E09B6-C658-4040-A7FB-6C6B2E2552AA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73B2F03-1471-1947-B68D-B54148660CDE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>HDI rank</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>..</t>
-  </si>
-  <si>
     <t>United Kingdom</t>
   </si>
   <si>
@@ -559,9 +556,6 @@
     <t>Central African Republic</t>
   </si>
   <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
     <t>Monaco</t>
   </si>
   <si>
@@ -574,9 +568,6 @@
     <t>Somalia</t>
   </si>
   <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
     <t>Hong Kong</t>
   </si>
   <si>
@@ -611,9 +602,6 @@
   </si>
   <si>
     <t>Laos</t>
-  </si>
-  <si>
-    <t>Micronesia</t>
   </si>
   <si>
     <t>USA</t>
@@ -988,10 +976,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G196"/>
+  <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G162" sqref="G162"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1028,7 +1016,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1">
         <v>0.874</v>
@@ -1051,7 +1039,7 @@
         <v>179</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" s="1">
         <v>0.874</v>
@@ -1074,7 +1062,7 @@
         <v>187</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1">
         <v>0.73199999999999998</v>
@@ -1097,7 +1085,7 @@
         <v>188</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1">
         <v>0.77600000000000002</v>
@@ -1120,7 +1108,7 @@
         <v>186</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1">
         <v>0.76500000000000001</v>
@@ -1143,7 +1131,7 @@
         <v>172</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="1">
         <v>0.76500000000000001</v>
@@ -1166,7 +1154,7 @@
         <v>165</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" s="1">
         <v>0.83899999999999997</v>
@@ -1189,7 +1177,7 @@
         <v>185</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="1">
         <v>0.874</v>
@@ -1212,7 +1200,7 @@
         <v>147</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="1">
         <v>0.74199999999999999</v>
@@ -1235,7 +1223,7 @@
         <v>183</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="1">
         <v>0.78400000000000003</v>
@@ -1258,7 +1246,7 @@
         <v>175</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="1">
         <v>0.78600000000000003</v>
@@ -1281,7 +1269,7 @@
         <v>168</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="1">
         <v>0.73699999999999999</v>
@@ -1304,7 +1292,7 @@
         <v>171</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C14" s="1">
         <v>0.81399999999999995</v>
@@ -1327,7 +1315,7 @@
         <v>174</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="1">
         <v>0.84199999999999997</v>
@@ -1350,7 +1338,7 @@
         <v>178</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="1">
         <v>0.84199999999999997</v>
@@ -1373,7 +1361,7 @@
         <v>169</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C17" s="1">
         <v>0.60899999999999999</v>
@@ -1396,7 +1384,7 @@
         <v>151</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C18" s="1">
         <v>0.93700000000000006</v>
@@ -1419,7 +1407,7 @@
         <v>157</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" s="1">
         <v>0.81799999999999995</v>
@@ -1442,7 +1430,7 @@
         <v>181</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="1">
         <v>0.879</v>
@@ -1465,7 +1453,7 @@
         <v>176</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C21" s="1">
         <v>0.83199999999999996</v>
@@ -1488,7 +1476,7 @@
         <v>173</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" s="1">
         <v>0.878</v>
@@ -1511,7 +1499,7 @@
         <v>150</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="1">
         <v>0.85399999999999998</v>
@@ -1534,7 +1522,7 @@
         <v>149</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C24" s="1">
         <v>0.85099999999999998</v>
@@ -1557,7 +1545,7 @@
         <v>156</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C25" s="1">
         <v>0.73699999999999999</v>
@@ -1580,7 +1568,7 @@
         <v>179</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C26" s="1">
         <v>0.871</v>
@@ -1603,7 +1591,7 @@
         <v>162</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27" s="1">
         <v>0.88600000000000001</v>
@@ -1626,7 +1614,7 @@
         <v>152</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" s="1">
         <v>0.84699999999999998</v>
@@ -1649,7 +1637,7 @@
         <v>194</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C29" s="1">
         <v>0.83</v>
@@ -1672,7 +1660,7 @@
         <v>177</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C30" s="1">
         <v>0.83</v>
@@ -1695,7 +1683,7 @@
         <v>163</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C31" s="1">
         <v>0.85299999999999998</v>
@@ -1718,7 +1706,7 @@
         <v>153</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C32" s="1">
         <v>0.85299999999999998</v>
@@ -1741,7 +1729,7 @@
         <v>154</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33" s="1">
         <v>0.85299999999999998</v>
@@ -1764,7 +1752,7 @@
         <v>121</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" s="1">
         <v>0.80400000000000005</v>
@@ -1787,7 +1775,7 @@
         <v>163</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C35" s="1">
         <v>0.878</v>
@@ -1810,7 +1798,7 @@
         <v>143</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" s="1">
         <v>0.89200000000000002</v>
@@ -1833,7 +1821,7 @@
         <v>184</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C37" s="1">
         <v>0.91900000000000004</v>
@@ -1856,7 +1844,7 @@
         <v>158</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C38" s="1">
         <v>0.94799999999999995</v>
@@ -1879,7 +1867,7 @@
         <v>154</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C39" s="1">
         <v>0.92700000000000005</v>
@@ -1902,7 +1890,7 @@
         <v>192</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C40" s="1">
         <v>0.92700000000000005</v>
@@ -1925,7 +1913,7 @@
         <v>134</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" s="1">
         <v>0.92700000000000005</v>
@@ -1948,7 +1936,7 @@
         <v>139</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C42" s="1">
         <v>0.92700000000000005</v>
@@ -1971,7 +1959,7 @@
         <v>145</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C43" s="1">
         <v>0.92400000000000004</v>
@@ -1994,7 +1982,7 @@
         <v>138</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C44" s="1">
         <v>0.92400000000000004</v>
@@ -2017,7 +2005,7 @@
         <v>167</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C45" s="1">
         <v>0.85799999999999998</v>
@@ -2040,7 +2028,7 @@
         <v>127</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="1">
         <v>0.94299999999999995</v>
@@ -2063,7 +2051,7 @@
         <v>125</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C47" s="1">
         <v>0.95899999999999996</v>
@@ -2086,7 +2074,7 @@
         <v>129</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C48" s="1">
         <v>0.93</v>
@@ -2109,7 +2097,7 @@
         <v>111</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C49" s="1">
         <v>0.94599999999999995</v>
@@ -2132,7 +2120,7 @@
         <v>170</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C50" s="1">
         <v>0.92100000000000004</v>
@@ -2155,7 +2143,7 @@
         <v>166</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C51" s="1">
         <v>0.84099999999999997</v>
@@ -2178,7 +2166,7 @@
         <v>146</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52" s="1">
         <v>0.91900000000000004</v>
@@ -2201,7 +2189,7 @@
         <v>160</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="1">
         <v>0.81699999999999995</v>
@@ -2224,7 +2212,7 @@
         <v>135</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C54" s="1">
         <v>0.93200000000000005</v>
@@ -2247,7 +2235,7 @@
         <v>148</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="1">
         <v>0.85299999999999998</v>
@@ -2270,7 +2258,7 @@
         <v>139</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C56" s="1">
         <v>0.89900000000000002</v>
@@ -2293,7 +2281,7 @@
         <v>160</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C57" s="1">
         <v>0.96199999999999997</v>
@@ -2316,7 +2304,7 @@
         <v>159</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C58" s="1">
         <v>0.99199999999999999</v>
@@ -2339,7 +2327,7 @@
         <v>123</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C59" s="1">
         <v>0.82599999999999996</v>
@@ -2362,7 +2350,7 @@
         <v>189</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C60" s="1">
         <v>0.94199999999999995</v>
@@ -2385,7 +2373,7 @@
         <v>130</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C61" s="1">
         <v>0.94199999999999995</v>
@@ -2408,7 +2396,7 @@
         <v>105</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C62" s="1">
         <v>0.94599999999999995</v>
@@ -2431,7 +2419,7 @@
         <v>125</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C63" s="1">
         <v>0.98599999999999999</v>
@@ -2454,7 +2442,7 @@
         <v>131</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C64" s="1">
         <v>0.81899999999999995</v>
@@ -2477,7 +2465,7 @@
         <v>124</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65" s="1">
         <v>0.96099999999999997</v>
@@ -2500,7 +2488,7 @@
         <v>139</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" s="1">
         <v>0.92400000000000004</v>
@@ -2523,7 +2511,7 @@
         <v>133</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C67" s="1">
         <v>0.85799999999999998</v>
@@ -2546,7 +2534,7 @@
         <v>107</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C68" s="1">
         <v>1.01</v>
@@ -2569,7 +2557,7 @@
         <v>116</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C69" s="1">
         <v>1.0009999999999999</v>
@@ -2592,7 +2580,7 @@
         <v>142</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C70" s="1">
         <v>0.90700000000000003</v>
@@ -2615,7 +2603,7 @@
         <v>137</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C71" s="1">
         <v>0.90700000000000003</v>
@@ -2638,7 +2626,7 @@
         <v>109</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C72" s="1">
         <v>0.92300000000000004</v>
@@ -2661,7 +2649,7 @@
         <v>132</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C73" s="1">
         <v>0.9</v>
@@ -2684,7 +2672,7 @@
         <v>110</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C74" s="1">
         <v>0.96599999999999997</v>
@@ -2707,7 +2695,7 @@
         <v>78</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C75" s="1">
         <v>0.94</v>
@@ -2730,7 +2718,7 @@
         <v>144</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C76" s="1">
         <v>0.92500000000000004</v>
@@ -2753,7 +2741,7 @@
         <v>105</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C77" s="1">
         <v>0.93700000000000006</v>
@@ -2776,7 +2764,7 @@
         <v>108</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C78" s="1">
         <v>0.98399999999999999</v>
@@ -2799,7 +2787,7 @@
         <v>115</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C79" s="1">
         <v>1.01</v>
@@ -2822,7 +2810,7 @@
         <v>113</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C80" s="1">
         <v>0.92600000000000005</v>
@@ -2845,7 +2833,7 @@
         <v>91</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1">
         <v>0.95799999999999996</v>
@@ -2868,7 +2856,7 @@
         <v>111</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C82" s="1">
         <v>0.88400000000000001</v>
@@ -2891,7 +2879,7 @@
         <v>103</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C83" s="1">
         <v>0.96699999999999997</v>
@@ -2914,7 +2902,7 @@
         <v>117</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C84" s="1">
         <v>0.95799999999999996</v>
@@ -2937,7 +2925,7 @@
         <v>76</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C85" s="1">
         <v>0.89300000000000002</v>
@@ -2960,7 +2948,7 @@
         <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C86" s="1">
         <v>0.94699999999999995</v>
@@ -2983,7 +2971,7 @@
         <v>97</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C87" s="1">
         <v>0.97199999999999998</v>
@@ -3006,7 +2994,7 @@
         <v>94</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" s="1">
         <v>0.97499999999999998</v>
@@ -3029,7 +3017,7 @@
         <v>60</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C89" s="1">
         <v>0.997</v>
@@ -3052,7 +3040,7 @@
         <v>58</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C90" s="1">
         <v>0.997</v>
@@ -3075,7 +3063,7 @@
         <v>120</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C91" s="1">
         <v>0.96699999999999997</v>
@@ -3098,7 +3086,7 @@
         <v>104</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C92" s="1">
         <v>0.96699999999999997</v>
@@ -3121,7 +3109,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C93" s="1">
         <v>0.86399999999999999</v>
@@ -3144,7 +3132,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C94" s="1">
         <v>0.98599999999999999</v>
@@ -3167,7 +3155,7 @@
         <v>118</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C95" s="1">
         <v>0.93400000000000005</v>
@@ -3190,7 +3178,7 @@
         <v>99</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C96" s="1">
         <v>0.95</v>
@@ -3213,7 +3201,7 @@
         <v>87</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C97" s="1">
         <v>0.95899999999999996</v>
@@ -3236,7 +3224,7 @@
         <v>77</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C98" s="1">
         <v>0.95099999999999996</v>
@@ -3282,7 +3270,7 @@
         <v>191</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C100" s="1">
         <v>0.96599999999999997</v>
@@ -3305,7 +3293,7 @@
         <v>33</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C101" s="1">
         <v>0.99099999999999999</v>
@@ -3328,7 +3316,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C102" s="1">
         <v>0.95</v>
@@ -3351,7 +3339,7 @@
         <v>119</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C103" s="1">
         <v>0.96199999999999997</v>
@@ -3374,7 +3362,7 @@
         <v>51</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C104" s="1">
         <v>0.97199999999999998</v>
@@ -3397,7 +3385,7 @@
         <v>114</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C105" s="1">
         <v>0.86699999999999999</v>
@@ -3420,7 +3408,7 @@
         <v>96</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C106" s="1">
         <v>0.99</v>
@@ -3443,7 +3431,7 @@
         <v>99</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C107" s="1">
         <v>0.99</v>
@@ -3466,7 +3454,7 @@
         <v>90</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C108" s="1">
         <v>0.95399999999999996</v>
@@ -3489,7 +3477,7 @@
         <v>84</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C109" s="1">
         <v>0.99299999999999999</v>
@@ -3512,7 +3500,7 @@
         <v>74</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C110" s="1">
         <v>0.85399999999999998</v>
@@ -3535,7 +3523,7 @@
         <v>122</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C111" s="1">
         <v>0.85399999999999998</v>
@@ -3558,7 +3546,7 @@
         <v>52</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C112" s="1">
         <v>0.92700000000000005</v>
@@ -3581,7 +3569,7 @@
         <v>42</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C113" s="1">
         <v>0.97199999999999998</v>
@@ -3604,7 +3592,7 @@
         <v>71</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C114" s="1">
         <v>0.90800000000000003</v>
@@ -3627,7 +3615,7 @@
         <v>59</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C115" s="1">
         <v>0.9</v>
@@ -3650,7 +3638,7 @@
         <v>20</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C116" s="1">
         <v>0.96599999999999997</v>
@@ -3673,7 +3661,7 @@
         <v>70</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C117" s="1">
         <v>0.97</v>
@@ -3696,7 +3684,7 @@
         <v>87</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C118" s="1">
         <v>1.0009999999999999</v>
@@ -3719,7 +3707,7 @@
         <v>73</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C119" s="1">
         <v>0.93400000000000005</v>
@@ -3742,7 +3730,7 @@
         <v>33</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C120" s="1">
         <v>0.92300000000000004</v>
@@ -3765,7 +3753,7 @@
         <v>65</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C121" s="1">
         <v>1.004</v>
@@ -3788,7 +3776,7 @@
         <v>68</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C122" s="1">
         <v>0.94599999999999995</v>
@@ -3811,7 +3799,7 @@
         <v>75</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C123" s="1">
         <v>0.95899999999999996</v>
@@ -3834,7 +3822,7 @@
         <v>89</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C124" s="1">
         <v>0.97599999999999998</v>
@@ -3857,7 +3845,7 @@
         <v>66</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C125" s="1">
         <v>0.96899999999999997</v>
@@ -3880,7 +3868,7 @@
         <v>95</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C126" s="1">
         <v>1.004</v>
@@ -3903,7 +3891,7 @@
         <v>101</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C127" s="1">
         <v>0.96899999999999997</v>
@@ -3926,7 +3914,7 @@
         <v>83</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C128" s="1">
         <v>0.85399999999999998</v>
@@ -3949,7 +3937,7 @@
         <v>69</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C129" s="1">
         <v>0.86199999999999999</v>
@@ -3972,7 +3960,7 @@
         <v>62</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C130" s="1">
         <v>1.004</v>
@@ -3995,7 +3983,7 @@
         <v>33</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C131" s="1">
         <v>0.97899999999999998</v>
@@ -4018,7 +4006,7 @@
         <v>81</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C132" s="1">
         <v>0.92300000000000004</v>
@@ -4041,7 +4029,7 @@
         <v>66</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C133" s="1">
         <v>0.96899999999999997</v>
@@ -4064,7 +4052,7 @@
         <v>63</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C134" s="1">
         <v>0.90400000000000003</v>
@@ -4087,7 +4075,7 @@
         <v>97</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C135" s="1">
         <v>0.90400000000000003</v>
@@ -4110,7 +4098,7 @@
         <v>50</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C136" s="1">
         <v>0.99</v>
@@ -4133,7 +4121,7 @@
         <v>47</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C137" s="1">
         <v>0.97</v>
@@ -4156,7 +4144,7 @@
         <v>17</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C138" s="1">
         <v>0.97</v>
@@ -4179,7 +4167,7 @@
         <v>56</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C139" s="1">
         <v>0.98399999999999999</v>
@@ -4202,7 +4190,7 @@
         <v>49</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C140" s="1">
         <v>1.016</v>
@@ -4225,7 +4213,7 @@
         <v>38</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C141" s="1">
         <v>0.88200000000000001</v>
@@ -4248,7 +4236,7 @@
         <v>71</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C142" s="1">
         <v>1.028</v>
@@ -4271,7 +4259,7 @@
         <v>56</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C143" s="1">
         <v>1.006</v>
@@ -4294,7 +4282,7 @@
         <v>30</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C144" s="1">
         <v>0.98599999999999999</v>
@@ -4317,7 +4305,7 @@
         <v>84</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C145" s="1">
         <v>1</v>
@@ -4340,7 +4328,7 @@
         <v>92</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C146" s="1">
         <v>1.026</v>
@@ -4363,7 +4351,7 @@
         <v>64</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C147" s="1">
         <v>0.95399999999999996</v>
@@ -4386,7 +4374,7 @@
         <v>40</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C148" s="1">
         <v>0.99099999999999999</v>
@@ -4432,7 +4420,7 @@
         <v>193</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C150" s="1">
         <v>0.98499999999999999</v>
@@ -4455,7 +4443,7 @@
         <v>79</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C151" s="1">
         <v>1.0049999999999999</v>
@@ -4478,7 +4466,7 @@
         <v>48</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C152" s="1">
         <v>0.95499999999999996</v>
@@ -4501,7 +4489,7 @@
         <v>18</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C153" s="1">
         <v>0.92900000000000005</v>
@@ -4524,7 +4512,7 @@
         <v>12</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C154" s="1">
         <v>0.96399999999999997</v>
@@ -4547,7 +4535,7 @@
         <v>45</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C155" s="1">
         <v>0.997</v>
@@ -4570,7 +4558,7 @@
         <v>135</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C156" s="1">
         <v>0.85299999999999998</v>
@@ -4593,7 +4581,7 @@
         <v>43</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C157" s="1">
         <v>0.98799999999999999</v>
@@ -4639,7 +4627,7 @@
         <v>52</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C159" s="1">
         <v>1.0209999999999999</v>
@@ -4662,7 +4650,7 @@
         <v>24</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C160" s="1">
         <v>0.95699999999999996</v>
@@ -4685,7 +4673,7 @@
         <v>79</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C161" s="1">
         <v>0.98</v>
@@ -4708,7 +4696,7 @@
         <v>41</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C162" s="1">
         <v>0.98</v>
@@ -4731,7 +4719,7 @@
         <v>19</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C163" s="1">
         <v>0.97299999999999998</v>
@@ -4754,7 +4742,7 @@
         <v>54</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C164" s="1">
         <v>1.0169999999999999</v>
@@ -4777,7 +4765,7 @@
         <v>38</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C165" s="1">
         <v>0.96599999999999997</v>
@@ -4800,7 +4788,7 @@
         <v>44</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C166" s="1">
         <v>1.0249999999999999</v>
@@ -4823,7 +4811,7 @@
         <v>21</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C167" s="1">
         <v>0.98799999999999999</v>
@@ -4869,7 +4857,7 @@
         <v>54</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C169" s="1">
         <v>1.006</v>
@@ -4892,7 +4880,7 @@
         <v>26</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C170" s="1">
         <v>0.96299999999999997</v>
@@ -4915,7 +4903,7 @@
         <v>16</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C171" s="1">
         <v>0.96399999999999997</v>
@@ -4938,7 +4926,7 @@
         <v>22</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C172" s="1">
         <v>0.97799999999999998</v>
@@ -5007,7 +4995,7 @@
         <v>29</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C175" s="1">
         <v>0.95699999999999996</v>
@@ -5030,7 +5018,7 @@
         <v>32</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C176" s="1">
         <v>1.032</v>
@@ -5053,7 +5041,7 @@
         <v>37</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C177" s="1">
         <v>1.032</v>
@@ -5076,7 +5064,7 @@
         <v>36</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C178" s="1">
         <v>1.006</v>
@@ -5099,7 +5087,7 @@
         <v>30</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C179" s="1">
         <v>1.032</v>
@@ -5122,7 +5110,7 @@
         <v>10</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C180" s="1">
         <v>0.99299999999999999</v>
@@ -5145,7 +5133,7 @@
         <v>28</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C181" s="1">
         <v>0.98299999999999998</v>
@@ -5168,7 +5156,7 @@
         <v>23</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C182" s="1">
         <v>1</v>
@@ -5191,7 +5179,7 @@
         <v>60</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C183" s="1">
         <v>0.96399999999999997</v>
@@ -5214,7 +5202,7 @@
         <v>27</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C184" s="1">
         <v>0.97399999999999998</v>
@@ -5237,7 +5225,7 @@
         <v>25</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C185" s="1">
         <v>1.0029999999999999</v>
@@ -5306,7 +5294,7 @@
         <v>45</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C188" s="1">
         <v>0.98199999999999998</v>
@@ -5439,78 +5427,9 @@
         <v>34271</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A194" s="1">
-        <v>127</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A195" s="1">
-        <v>190</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A196" s="1">
-        <v>195</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:G196">
-    <sortCondition ref="F2:F196"/>
+  <sortState ref="A2:G193">
+    <sortCondition ref="F2:F193"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
